--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1190.587447198714</v>
+        <v>1251.480198921084</v>
       </c>
       <c r="AB2" t="n">
-        <v>1629.014270268422</v>
+        <v>1712.330419573578</v>
       </c>
       <c r="AC2" t="n">
-        <v>1473.543434649891</v>
+        <v>1548.908007600314</v>
       </c>
       <c r="AD2" t="n">
-        <v>1190587.447198714</v>
+        <v>1251480.198921084</v>
       </c>
       <c r="AE2" t="n">
-        <v>1629014.270268422</v>
+        <v>1712330.419573579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511800322238395e-06</v>
+        <v>2.7972264072796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1473543.434649891</v>
+        <v>1548908.007600314</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.2297349385103</v>
+        <v>463.6459445789527</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.554571388548</v>
+        <v>634.3808359883844</v>
       </c>
       <c r="AC3" t="n">
-        <v>528.7655035227179</v>
+        <v>573.8364193607475</v>
       </c>
       <c r="AD3" t="n">
-        <v>427229.7349385103</v>
+        <v>463645.9445789527</v>
       </c>
       <c r="AE3" t="n">
-        <v>584554.571388548</v>
+        <v>634380.8359883844</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.789164369475623e-06</v>
+        <v>5.160684327007495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.447916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>528765.503522718</v>
+        <v>573836.4193607476</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.3038684826406</v>
+        <v>369.8053294691035</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.0410571868479</v>
+        <v>505.9839664393336</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.5171387465779</v>
+        <v>457.6935668353199</v>
       </c>
       <c r="AD4" t="n">
-        <v>333303.8684826405</v>
+        <v>369805.3294691035</v>
       </c>
       <c r="AE4" t="n">
-        <v>456041.0571868478</v>
+        <v>505983.9664393336</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.250450929247678e-06</v>
+        <v>6.014185234063183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>412517.138746578</v>
+        <v>457693.5668353199</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.6668562964908</v>
+        <v>325.9728061778266</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.7539013872856</v>
+        <v>446.0103743177585</v>
       </c>
       <c r="AC5" t="n">
-        <v>373.3612483426212</v>
+        <v>403.4437701723627</v>
       </c>
       <c r="AD5" t="n">
-        <v>301666.8562964908</v>
+        <v>325972.8061778265</v>
       </c>
       <c r="AE5" t="n">
-        <v>412753.9013872856</v>
+        <v>446010.3743177585</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.490576696921556e-06</v>
+        <v>6.45848077265068e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.353124999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>373361.2483426212</v>
+        <v>403443.7701723627</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>284.1009505560273</v>
+        <v>308.4069004373631</v>
       </c>
       <c r="AB6" t="n">
-        <v>388.7194542001157</v>
+        <v>421.9759271305886</v>
       </c>
       <c r="AC6" t="n">
-        <v>351.6206150624363</v>
+        <v>381.7031368921779</v>
       </c>
       <c r="AD6" t="n">
-        <v>284100.9505560274</v>
+        <v>308406.9004373631</v>
       </c>
       <c r="AE6" t="n">
-        <v>388719.4542001157</v>
+        <v>421975.9271305886</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.641129426107122e-06</v>
+        <v>6.737042738520846e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.173958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>351620.6150624363</v>
+        <v>381703.1368921779</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>272.484708578299</v>
+        <v>296.7906584596348</v>
       </c>
       <c r="AB7" t="n">
-        <v>372.8255994537602</v>
+        <v>406.0820723842332</v>
       </c>
       <c r="AC7" t="n">
-        <v>337.2436475059077</v>
+        <v>367.3261693356494</v>
       </c>
       <c r="AD7" t="n">
-        <v>272484.708578299</v>
+        <v>296790.6584596348</v>
       </c>
       <c r="AE7" t="n">
-        <v>372825.5994537602</v>
+        <v>406082.0723842332</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.747479173758554e-06</v>
+        <v>6.933817615574483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.055208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>337243.6475059077</v>
+        <v>367326.1693356493</v>
       </c>
     </row>
     <row r="8">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>252.2249957713388</v>
+        <v>288.6411159032332</v>
       </c>
       <c r="AB8" t="n">
-        <v>345.1053665956661</v>
+        <v>394.9315087261214</v>
       </c>
       <c r="AC8" t="n">
-        <v>312.1689947663027</v>
+        <v>357.2397998231533</v>
       </c>
       <c r="AD8" t="n">
-        <v>252224.9957713388</v>
+        <v>288641.1159032332</v>
       </c>
       <c r="AE8" t="n">
-        <v>345105.366595666</v>
+        <v>394931.5087261214</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.821442578503789e-06</v>
+        <v>7.070669279039769e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.977083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>312168.9947663026</v>
+        <v>357239.7998231533</v>
       </c>
     </row>
     <row r="9">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.7450582964337</v>
+        <v>271.1362595237931</v>
       </c>
       <c r="AB9" t="n">
-        <v>337.6074743847257</v>
+        <v>370.9805919680115</v>
       </c>
       <c r="AC9" t="n">
-        <v>305.3866908646143</v>
+        <v>335.5747249451146</v>
       </c>
       <c r="AD9" t="n">
-        <v>246745.0582964337</v>
+        <v>271136.2595237931</v>
       </c>
       <c r="AE9" t="n">
-        <v>337607.4743847257</v>
+        <v>370980.5919680115</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.869730324008075e-06</v>
+        <v>7.160014250651228e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.927083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>305386.6908646143</v>
+        <v>335574.7249451146</v>
       </c>
     </row>
     <row r="10">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>241.5682241205366</v>
+        <v>265.9594253478959</v>
       </c>
       <c r="AB10" t="n">
-        <v>330.5243014794617</v>
+        <v>363.8974190627438</v>
       </c>
       <c r="AC10" t="n">
-        <v>298.9795260401308</v>
+        <v>329.1675601206301</v>
       </c>
       <c r="AD10" t="n">
-        <v>241568.2241205366</v>
+        <v>265959.4253478959</v>
       </c>
       <c r="AE10" t="n">
-        <v>330524.3014794617</v>
+        <v>363897.4190627438</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.916267456382295e-06</v>
+        <v>7.246120129636289e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>298979.5260401309</v>
+        <v>329167.5601206301</v>
       </c>
     </row>
     <row r="11">
@@ -6781,28 +6781,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>237.2191295228806</v>
+        <v>261.6103307502398</v>
       </c>
       <c r="AB11" t="n">
-        <v>324.5736783824395</v>
+        <v>357.9467959657185</v>
       </c>
       <c r="AC11" t="n">
-        <v>293.5968220597346</v>
+        <v>323.7848561402329</v>
       </c>
       <c r="AD11" t="n">
-        <v>237219.1295228806</v>
+        <v>261610.3307502398</v>
       </c>
       <c r="AE11" t="n">
-        <v>324573.6783824395</v>
+        <v>357946.7959657185</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.952300909976128e-06</v>
+        <v>7.312791452862967e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.844791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>293596.8220597345</v>
+        <v>323784.8561402329</v>
       </c>
     </row>
     <row r="12">
@@ -6887,28 +6887,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>233.7805868130051</v>
+        <v>258.1717880403643</v>
       </c>
       <c r="AB12" t="n">
-        <v>319.8689125489922</v>
+        <v>353.2420301322687</v>
       </c>
       <c r="AC12" t="n">
-        <v>289.3410724742496</v>
+        <v>319.5291065547473</v>
       </c>
       <c r="AD12" t="n">
-        <v>233780.5868130051</v>
+        <v>258171.7880403643</v>
       </c>
       <c r="AE12" t="n">
-        <v>319868.9125489921</v>
+        <v>353242.0301322687</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.979581297919636e-06</v>
+        <v>7.363267312957658e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.81875</v>
       </c>
       <c r="AH12" t="n">
-        <v>289341.0724742496</v>
+        <v>319529.1065547473</v>
       </c>
     </row>
     <row r="13">
@@ -6993,28 +6993,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>230.0575907217127</v>
+        <v>254.4487919490687</v>
       </c>
       <c r="AB13" t="n">
-        <v>314.7749450498928</v>
+        <v>348.148062632998</v>
       </c>
       <c r="AC13" t="n">
-        <v>284.7332660838344</v>
+        <v>314.9213001642833</v>
       </c>
       <c r="AD13" t="n">
-        <v>230057.5907217127</v>
+        <v>254448.7919490687</v>
       </c>
       <c r="AE13" t="n">
-        <v>314774.9450498928</v>
+        <v>348148.062632998</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.007445223573166e-06</v>
+        <v>7.414822870594481e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.791666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>284733.2660838344</v>
+        <v>314921.3001642833</v>
       </c>
     </row>
     <row r="14">
@@ -7099,28 +7099,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>227.1763205306499</v>
+        <v>251.5675217580058</v>
       </c>
       <c r="AB14" t="n">
-        <v>310.832664061813</v>
+        <v>344.2057816449181</v>
       </c>
       <c r="AC14" t="n">
-        <v>281.1672308602296</v>
+        <v>311.3552649406784</v>
       </c>
       <c r="AD14" t="n">
-        <v>227176.3205306499</v>
+        <v>251567.5217580058</v>
       </c>
       <c r="AE14" t="n">
-        <v>310832.664061813</v>
+        <v>344205.7816449181</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.027139621286394e-06</v>
+        <v>7.451262662641452e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.772916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>281167.2308602295</v>
+        <v>311355.2649406784</v>
       </c>
     </row>
     <row r="15">
@@ -7205,28 +7205,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>223.9909167653072</v>
+        <v>248.3821179926632</v>
       </c>
       <c r="AB15" t="n">
-        <v>306.4742540999773</v>
+        <v>339.8473716830825</v>
       </c>
       <c r="AC15" t="n">
-        <v>277.2247814280833</v>
+        <v>307.4128155085322</v>
       </c>
       <c r="AD15" t="n">
-        <v>223990.9167653072</v>
+        <v>248382.1179926632</v>
       </c>
       <c r="AE15" t="n">
-        <v>306474.2540999773</v>
+        <v>339847.3716830825</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.04566694357958e-06</v>
+        <v>7.485543059604157e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.75625</v>
       </c>
       <c r="AH15" t="n">
-        <v>277224.7814280833</v>
+        <v>307412.8155085322</v>
       </c>
     </row>
     <row r="16">
@@ -7311,28 +7311,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>221.5592516887878</v>
+        <v>245.9504529161439</v>
       </c>
       <c r="AB16" t="n">
-        <v>303.1471426647933</v>
+        <v>336.5202602478984</v>
       </c>
       <c r="AC16" t="n">
-        <v>274.2152048386419</v>
+        <v>304.4032389190908</v>
       </c>
       <c r="AD16" t="n">
-        <v>221559.2516887878</v>
+        <v>245950.4529161439</v>
       </c>
       <c r="AE16" t="n">
-        <v>303147.1426647933</v>
+        <v>336520.2602478984</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.065653110147819e-06</v>
+        <v>7.522522700422193e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.7375</v>
       </c>
       <c r="AH16" t="n">
-        <v>274215.2048386419</v>
+        <v>304403.2389190908</v>
       </c>
     </row>
     <row r="17">
@@ -7417,28 +7417,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>219.2565822910818</v>
+        <v>243.6477835184379</v>
       </c>
       <c r="AB17" t="n">
-        <v>299.9965288082493</v>
+        <v>333.3696463913544</v>
       </c>
       <c r="AC17" t="n">
-        <v>271.3652811466512</v>
+        <v>301.5533152271001</v>
       </c>
       <c r="AD17" t="n">
-        <v>219256.5822910818</v>
+        <v>243647.7835184379</v>
       </c>
       <c r="AE17" t="n">
-        <v>299996.5288082493</v>
+        <v>333369.6463913544</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.076010904500701e-06</v>
+        <v>7.541687331795043e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.728125</v>
       </c>
       <c r="AH17" t="n">
-        <v>271365.2811466513</v>
+        <v>301553.3152271001</v>
       </c>
     </row>
     <row r="18">
@@ -7523,28 +7523,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>216.0803541000333</v>
+        <v>240.4715553273893</v>
       </c>
       <c r="AB18" t="n">
-        <v>295.6506732719607</v>
+        <v>329.0237908550658</v>
       </c>
       <c r="AC18" t="n">
-        <v>267.434187963298</v>
+        <v>297.6222220437469</v>
       </c>
       <c r="AD18" t="n">
-        <v>216080.3541000333</v>
+        <v>240471.5553273893</v>
       </c>
       <c r="AE18" t="n">
-        <v>295650.6732719607</v>
+        <v>329023.7908550658</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.093662920228854e-06</v>
+        <v>7.574348182444548e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.7125</v>
       </c>
       <c r="AH18" t="n">
-        <v>267434.187963298</v>
+        <v>297622.222043747</v>
       </c>
     </row>
     <row r="19">
@@ -7629,28 +7629,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>213.6416149892716</v>
+        <v>238.0328162166277</v>
       </c>
       <c r="AB19" t="n">
-        <v>292.313882831042</v>
+        <v>325.6870004141471</v>
       </c>
       <c r="AC19" t="n">
-        <v>264.4158561188448</v>
+        <v>294.6038901992936</v>
       </c>
       <c r="AD19" t="n">
-        <v>213641.6149892716</v>
+        <v>238032.8162166277</v>
       </c>
       <c r="AE19" t="n">
-        <v>292313.882831042</v>
+        <v>325687.0004141471</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.103728945726726e-06</v>
+        <v>7.592972965046334e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.703125</v>
       </c>
       <c r="AH19" t="n">
-        <v>264415.8561188448</v>
+        <v>294603.8901992936</v>
       </c>
     </row>
     <row r="20">
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>211.2240737936311</v>
+        <v>235.6152750209871</v>
       </c>
       <c r="AB20" t="n">
-        <v>289.0060963127779</v>
+        <v>322.3792138958831</v>
       </c>
       <c r="AC20" t="n">
-        <v>261.4237601033752</v>
+        <v>291.6117941838241</v>
       </c>
       <c r="AD20" t="n">
-        <v>211224.0737936311</v>
+        <v>235615.2750209871</v>
       </c>
       <c r="AE20" t="n">
-        <v>289006.0963127779</v>
+        <v>322379.2138958831</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.113794971224598e-06</v>
+        <v>7.611597747648118e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH20" t="n">
-        <v>261423.7601033752</v>
+        <v>291611.7941838241</v>
       </c>
     </row>
     <row r="21">
@@ -7841,28 +7841,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>210.3827123419586</v>
+        <v>234.7739135693146</v>
       </c>
       <c r="AB21" t="n">
-        <v>287.8549084563526</v>
+        <v>321.2280260394577</v>
       </c>
       <c r="AC21" t="n">
-        <v>260.3824400002645</v>
+        <v>290.5704740807133</v>
       </c>
       <c r="AD21" t="n">
-        <v>210382.7123419585</v>
+        <v>234773.9135693146</v>
       </c>
       <c r="AE21" t="n">
-        <v>287854.9084563526</v>
+        <v>321228.0260394577</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.112044358094534e-06</v>
+        <v>7.608358655021721e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.695833333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>260382.4400002645</v>
+        <v>290570.4740807133</v>
       </c>
     </row>
     <row r="22">
@@ -7947,28 +7947,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>209.4915804698195</v>
+        <v>233.8827816971755</v>
       </c>
       <c r="AB22" t="n">
-        <v>286.6356225149289</v>
+        <v>320.0087400980341</v>
       </c>
       <c r="AC22" t="n">
-        <v>259.2795209978113</v>
+        <v>289.4675550782603</v>
       </c>
       <c r="AD22" t="n">
-        <v>209491.5804698195</v>
+        <v>233882.7816971755</v>
       </c>
       <c r="AE22" t="n">
-        <v>286635.6225149289</v>
+        <v>320008.7400980341</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.123715112294965e-06</v>
+        <v>7.62995260586437e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.685416666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>259279.5209978113</v>
+        <v>289467.5550782603</v>
       </c>
     </row>
     <row r="23">
@@ -8053,28 +8053,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>210.1307373132888</v>
+        <v>234.5219385406449</v>
       </c>
       <c r="AB23" t="n">
-        <v>287.5101451057732</v>
+        <v>320.8832626888783</v>
       </c>
       <c r="AC23" t="n">
-        <v>260.0705803799858</v>
+        <v>290.2586144604347</v>
       </c>
       <c r="AD23" t="n">
-        <v>210130.7373132888</v>
+        <v>234521.9385406449</v>
       </c>
       <c r="AE23" t="n">
-        <v>287510.1451057732</v>
+        <v>320883.2626888783</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.123277459012448e-06</v>
+        <v>7.62914283270777e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>3.685416666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>260070.5803799858</v>
+        <v>290258.6144604347</v>
       </c>
     </row>
     <row r="24">
@@ -8159,28 +8159,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>210.8937582312246</v>
+        <v>235.2849594585806</v>
       </c>
       <c r="AB24" t="n">
-        <v>288.5541439877994</v>
+        <v>321.9272615709045</v>
       </c>
       <c r="AC24" t="n">
-        <v>261.0149414739735</v>
+        <v>291.2029755544224</v>
       </c>
       <c r="AD24" t="n">
-        <v>210893.7582312246</v>
+        <v>235284.9594585806</v>
       </c>
       <c r="AE24" t="n">
-        <v>288554.1439877994</v>
+        <v>321927.2615709045</v>
       </c>
       <c r="AF24" t="n">
-        <v>4.122985690157438e-06</v>
+        <v>7.628602983936704e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>3.685416666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>261014.9414739734</v>
+        <v>291202.9755544224</v>
       </c>
     </row>
   </sheetData>
@@ -8456,28 +8456,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.1462023220374</v>
+        <v>783.7940812764805</v>
       </c>
       <c r="AB2" t="n">
-        <v>992.1770252096337</v>
+        <v>1072.421640556915</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.4850424528264</v>
+        <v>970.0712243353883</v>
       </c>
       <c r="AD2" t="n">
-        <v>725146.2023220374</v>
+        <v>783794.0812764805</v>
       </c>
       <c r="AE2" t="n">
-        <v>992177.0252096337</v>
+        <v>1072421.640556915</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981821022436055e-06</v>
+        <v>3.777656727955162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>897485.0424528264</v>
+        <v>970071.2243353883</v>
       </c>
     </row>
     <row r="3">
@@ -8562,28 +8562,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.2664154653169</v>
+        <v>368.4722110088969</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.989812316235</v>
+        <v>504.1599349490434</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.4707846144938</v>
+        <v>456.0436183504187</v>
       </c>
       <c r="AD3" t="n">
-        <v>333266.4154653169</v>
+        <v>368472.2110088969</v>
       </c>
       <c r="AE3" t="n">
-        <v>455989.812316235</v>
+        <v>504159.9349490434</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.15443367430387e-06</v>
+        <v>6.01283741453844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>412470.7846144938</v>
+        <v>456043.6183504188</v>
       </c>
     </row>
     <row r="4">
@@ -8668,28 +8668,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.2417381297309</v>
+        <v>303.6839110491448</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.4391095020208</v>
+        <v>415.5137246860422</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.8442190513173</v>
+        <v>375.8576779791808</v>
       </c>
       <c r="AD4" t="n">
-        <v>280241.7381297309</v>
+        <v>303683.9110491448</v>
       </c>
       <c r="AE4" t="n">
-        <v>383439.1095020208</v>
+        <v>415513.7246860422</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.560697928979309e-06</v>
+        <v>6.787239783686726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.414583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>346844.2190513173</v>
+        <v>375857.6779791808</v>
       </c>
     </row>
     <row r="5">
@@ -8774,28 +8774,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.2978096288489</v>
+        <v>280.739982548266</v>
       </c>
       <c r="AB5" t="n">
-        <v>352.0462143122605</v>
+        <v>384.1208294964528</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.4474177183686</v>
+        <v>347.4608766462808</v>
       </c>
       <c r="AD5" t="n">
-        <v>257297.8096288489</v>
+        <v>280739.982548266</v>
       </c>
       <c r="AE5" t="n">
-        <v>352046.2143122605</v>
+        <v>384120.8294964528</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.778167019242053e-06</v>
+        <v>7.201769432253843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.160416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>318447.4177183686</v>
+        <v>347460.8766462808</v>
       </c>
     </row>
     <row r="6">
@@ -8880,28 +8880,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>244.0407934131831</v>
+        <v>267.4829663326001</v>
       </c>
       <c r="AB6" t="n">
-        <v>333.9073798677175</v>
+        <v>365.9819950519004</v>
       </c>
       <c r="AC6" t="n">
-        <v>302.039728175193</v>
+        <v>331.0531871031025</v>
       </c>
       <c r="AD6" t="n">
-        <v>244040.7934131831</v>
+        <v>267482.9663326001</v>
       </c>
       <c r="AE6" t="n">
-        <v>333907.3798677175</v>
+        <v>365981.9950519004</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.914443624729394e-06</v>
+        <v>7.461533674208116e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>302039.728175193</v>
+        <v>331053.1871031024</v>
       </c>
     </row>
     <row r="7">
@@ -8986,28 +8986,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>223.1486092809314</v>
+        <v>246.6760335463656</v>
       </c>
       <c r="AB7" t="n">
-        <v>305.3217718398714</v>
+        <v>337.5130316765255</v>
       </c>
       <c r="AC7" t="n">
-        <v>276.1822904573626</v>
+        <v>305.3012616359335</v>
       </c>
       <c r="AD7" t="n">
-        <v>223148.6092809314</v>
+        <v>246676.0335463656</v>
       </c>
       <c r="AE7" t="n">
-        <v>305321.7718398714</v>
+        <v>337513.0316765255</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.006200187449552e-06</v>
+        <v>7.636435843763154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.923958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>276182.2904573625</v>
+        <v>305301.2616359335</v>
       </c>
     </row>
     <row r="8">
@@ -9092,28 +9092,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>217.3079264005019</v>
+        <v>240.8353506659361</v>
       </c>
       <c r="AB8" t="n">
-        <v>297.3302918501287</v>
+        <v>329.5215516867828</v>
       </c>
       <c r="AC8" t="n">
-        <v>268.9535061017257</v>
+        <v>298.0724772802967</v>
       </c>
       <c r="AD8" t="n">
-        <v>217307.9264005019</v>
+        <v>240835.3506659361</v>
       </c>
       <c r="AE8" t="n">
-        <v>297330.2918501287</v>
+        <v>329521.5516867828</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.062642546754387e-06</v>
+        <v>7.744023691482863e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.869791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>268953.5061017257</v>
+        <v>298072.4772802967</v>
       </c>
     </row>
     <row r="9">
@@ -9198,28 +9198,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>211.7549462912027</v>
+        <v>235.2823705566369</v>
       </c>
       <c r="AB9" t="n">
-        <v>289.7324594843967</v>
+        <v>321.9237193210508</v>
       </c>
       <c r="AC9" t="n">
-        <v>262.080800193352</v>
+        <v>291.1997713719231</v>
       </c>
       <c r="AD9" t="n">
-        <v>211754.9462912027</v>
+        <v>235282.3705566369</v>
       </c>
       <c r="AE9" t="n">
-        <v>289732.4594843967</v>
+        <v>321923.7193210509</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.114406528683687e-06</v>
+        <v>7.842693829899603e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.820833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>262080.800193352</v>
+        <v>291199.7713719231</v>
       </c>
     </row>
     <row r="10">
@@ -9304,28 +9304,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>207.3582776602702</v>
+        <v>230.8857019257043</v>
       </c>
       <c r="AB10" t="n">
-        <v>283.7167434962274</v>
+        <v>315.9080033328815</v>
       </c>
       <c r="AC10" t="n">
-        <v>256.6392156959812</v>
+        <v>285.7581868745523</v>
       </c>
       <c r="AD10" t="n">
-        <v>207358.2776602702</v>
+        <v>230885.7019257043</v>
       </c>
       <c r="AE10" t="n">
-        <v>283716.7434962274</v>
+        <v>315908.0033328815</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.152588124684016e-06</v>
+        <v>7.915473844533524e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.785416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>256639.2156959813</v>
+        <v>285758.1868745523</v>
       </c>
     </row>
     <row r="11">
@@ -9410,28 +9410,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>202.6943700939507</v>
+        <v>226.2217943593848</v>
       </c>
       <c r="AB11" t="n">
-        <v>277.335379406912</v>
+        <v>309.5266392435661</v>
       </c>
       <c r="AC11" t="n">
-        <v>250.8668800390474</v>
+        <v>279.9858512176184</v>
       </c>
       <c r="AD11" t="n">
-        <v>202694.3700939507</v>
+        <v>226221.7943593848</v>
       </c>
       <c r="AE11" t="n">
-        <v>277335.379406912</v>
+        <v>309526.6392435661</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.187449581901708e-06</v>
+        <v>7.981925162242756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.754166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>250866.8800390474</v>
+        <v>279985.8512176184</v>
       </c>
     </row>
     <row r="12">
@@ -9516,28 +9516,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>199.480527903355</v>
+        <v>223.0079521687891</v>
       </c>
       <c r="AB12" t="n">
-        <v>272.9380587370303</v>
+        <v>305.1293185736845</v>
       </c>
       <c r="AC12" t="n">
-        <v>246.8892334822195</v>
+        <v>276.0082046607906</v>
       </c>
       <c r="AD12" t="n">
-        <v>199480.527903355</v>
+        <v>223007.9521687891</v>
       </c>
       <c r="AE12" t="n">
-        <v>272938.0587370303</v>
+        <v>305129.3185736845</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.206012176004634e-06</v>
+        <v>8.017308331412607e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.7375</v>
       </c>
       <c r="AH12" t="n">
-        <v>246889.2334822195</v>
+        <v>276008.2046607906</v>
       </c>
     </row>
     <row r="13">
@@ -9622,28 +9622,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>195.3210438718399</v>
+        <v>218.8484681372741</v>
       </c>
       <c r="AB13" t="n">
-        <v>267.24686918163</v>
+        <v>299.4381290182841</v>
       </c>
       <c r="AC13" t="n">
-        <v>241.74120307035</v>
+        <v>270.8601742489211</v>
       </c>
       <c r="AD13" t="n">
-        <v>195321.0438718399</v>
+        <v>218848.4681372741</v>
       </c>
       <c r="AE13" t="n">
-        <v>267246.86918163</v>
+        <v>299438.1290182841</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.231969624668889e-06</v>
+        <v>8.066787234641992e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.714583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>241741.20307035</v>
+        <v>270860.174248921</v>
       </c>
     </row>
     <row r="14">
@@ -9728,28 +9728,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>191.9840923204479</v>
+        <v>215.511516585882</v>
       </c>
       <c r="AB14" t="n">
-        <v>262.6811048531052</v>
+        <v>294.8723646897593</v>
       </c>
       <c r="AC14" t="n">
-        <v>237.6111888812476</v>
+        <v>266.7301600598187</v>
       </c>
       <c r="AD14" t="n">
-        <v>191984.0923204479</v>
+        <v>215511.516585882</v>
       </c>
       <c r="AE14" t="n">
-        <v>262681.1048531052</v>
+        <v>294872.3646897593</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.254154188352876e-06</v>
+        <v>8.109074436820595e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.694791666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>237611.1888812477</v>
+        <v>266730.1600598187</v>
       </c>
     </row>
     <row r="15">
@@ -9834,28 +9834,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>190.3616130871711</v>
+        <v>213.8890373526053</v>
       </c>
       <c r="AB15" t="n">
-        <v>260.461157187405</v>
+        <v>292.6524170240591</v>
       </c>
       <c r="AC15" t="n">
-        <v>235.6031099050451</v>
+        <v>264.7220810836162</v>
       </c>
       <c r="AD15" t="n">
-        <v>190361.6130871711</v>
+        <v>213889.0373526053</v>
       </c>
       <c r="AE15" t="n">
-        <v>260461.157187405</v>
+        <v>292652.4170240591</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.261699958313415e-06</v>
+        <v>8.123457838922161e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>235603.1099050451</v>
+        <v>264722.0810836162</v>
       </c>
     </row>
     <row r="16">
@@ -9940,28 +9940,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>189.0039711842866</v>
+        <v>212.5313954497207</v>
       </c>
       <c r="AB16" t="n">
-        <v>258.6035716409457</v>
+        <v>290.7948314775998</v>
       </c>
       <c r="AC16" t="n">
-        <v>233.9228097160016</v>
+        <v>263.0417808945727</v>
       </c>
       <c r="AD16" t="n">
-        <v>189003.9711842866</v>
+        <v>212531.3954497207</v>
       </c>
       <c r="AE16" t="n">
-        <v>258603.5716409457</v>
+        <v>290794.8314775998</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.271509459262116e-06</v>
+        <v>8.142156261654196e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.680208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>233922.8097160016</v>
+        <v>263041.7808945727</v>
       </c>
     </row>
     <row r="17">
@@ -10046,28 +10046,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>189.7510619935266</v>
+        <v>213.2784862589608</v>
       </c>
       <c r="AB17" t="n">
-        <v>259.6257742454677</v>
+        <v>291.8170340821219</v>
       </c>
       <c r="AC17" t="n">
-        <v>234.8474547386188</v>
+        <v>263.9664259171898</v>
       </c>
       <c r="AD17" t="n">
-        <v>189751.0619935266</v>
+        <v>213278.4862589608</v>
       </c>
       <c r="AE17" t="n">
-        <v>259625.7742454677</v>
+        <v>291817.0340821219</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.271056713064483e-06</v>
+        <v>8.141293257528101e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.680208333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>234847.4547386188</v>
+        <v>263966.4259171899</v>
       </c>
     </row>
   </sheetData>
@@ -10343,28 +10343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.1133976121802</v>
+        <v>284.040372103113</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.0033583568552</v>
+        <v>388.6365680883055</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.645143103163</v>
+        <v>351.545639484806</v>
       </c>
       <c r="AD2" t="n">
-        <v>263113.3976121802</v>
+        <v>284040.372103113</v>
       </c>
       <c r="AE2" t="n">
-        <v>360003.3583568552</v>
+        <v>388636.5680883055</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42541627413483e-06</v>
+        <v>7.295240222417155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.120833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>325645.143103163</v>
+        <v>351545.639484806</v>
       </c>
     </row>
     <row r="3">
@@ -10449,28 +10449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.7321293499557</v>
+        <v>204.5737629863166</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.3904050659706</v>
+        <v>279.9068476752086</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.398057635197</v>
+        <v>253.1929309848969</v>
       </c>
       <c r="AD3" t="n">
-        <v>183732.1293499557</v>
+        <v>204573.7629863166</v>
       </c>
       <c r="AE3" t="n">
-        <v>251390.4050659706</v>
+        <v>279906.8476752085</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.241143939043591e-06</v>
+        <v>9.032526670349345e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.136458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>227398.057635197</v>
+        <v>253192.9309848969</v>
       </c>
     </row>
     <row r="4">
@@ -10555,28 +10555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.7573756942166</v>
+        <v>174.6842606765981</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.3776247214074</v>
+        <v>239.0107119832946</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.2994794849072</v>
+        <v>216.1998650853193</v>
       </c>
       <c r="AD4" t="n">
-        <v>153757.3756942166</v>
+        <v>174684.2606765981</v>
       </c>
       <c r="AE4" t="n">
-        <v>210377.6247214075</v>
+        <v>239010.7119832946</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.530117653532327e-06</v>
+        <v>9.647965056941343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.871875000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>190299.4794849071</v>
+        <v>216199.8650853193</v>
       </c>
     </row>
     <row r="5">
@@ -10661,28 +10661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.2193735940728</v>
+        <v>164.1462585764542</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.9590653441565</v>
+        <v>224.5921526060436</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.2570071780412</v>
+        <v>203.1573927784534</v>
       </c>
       <c r="AD5" t="n">
-        <v>143219.3735940728</v>
+        <v>164146.2585764542</v>
       </c>
       <c r="AE5" t="n">
-        <v>195959.0653441565</v>
+        <v>224592.1526060436</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.664332135145102e-06</v>
+        <v>9.933806778452895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.760416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>177257.0071780412</v>
+        <v>203157.3927784534</v>
       </c>
     </row>
     <row r="6">
@@ -10767,28 +10767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.2979842116181</v>
+        <v>163.2248691939995</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.6983797422519</v>
+        <v>223.3314670041391</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.1166396405987</v>
+        <v>202.0170252410108</v>
       </c>
       <c r="AD6" t="n">
-        <v>142297.9842116181</v>
+        <v>163224.8691939995</v>
       </c>
       <c r="AE6" t="n">
-        <v>194698.3797422519</v>
+        <v>223331.4670041391</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.686897681614502e-06</v>
+        <v>9.981865486962993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.742708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>176116.6396405987</v>
+        <v>202017.0252410108</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.6876284950557</v>
+        <v>403.6030166336567</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.1911668909274</v>
+        <v>552.2274530666001</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.78555377013</v>
+        <v>499.5236400020212</v>
       </c>
       <c r="AD2" t="n">
-        <v>370687.6284950557</v>
+        <v>403603.0166336567</v>
       </c>
       <c r="AE2" t="n">
-        <v>507191.1668909274</v>
+        <v>552227.4530666001</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.844426695107509e-06</v>
+        <v>5.775169599437703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>458785.55377013</v>
+        <v>499523.6400020212</v>
       </c>
     </row>
     <row r="3">
@@ -11170,28 +11170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.5309081929912</v>
+        <v>253.389248939371</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.7908030122746</v>
+        <v>346.6983491433917</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.5567333915615</v>
+        <v>313.609945295439</v>
       </c>
       <c r="AD3" t="n">
-        <v>231530.9081929912</v>
+        <v>253389.248939371</v>
       </c>
       <c r="AE3" t="n">
-        <v>316790.8030122746</v>
+        <v>346698.3491433918</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.814586275869709e-06</v>
+        <v>7.744928963269479e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.398958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>286556.7333915615</v>
+        <v>313609.945295439</v>
       </c>
     </row>
     <row r="4">
@@ -11276,28 +11276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.6386452169838</v>
+        <v>226.4969859633637</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.9956224056094</v>
+        <v>309.9031685367265</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.2732331796244</v>
+        <v>280.3264450835019</v>
       </c>
       <c r="AD4" t="n">
-        <v>204638.6452169838</v>
+        <v>226496.9859633637</v>
       </c>
       <c r="AE4" t="n">
-        <v>279995.6224056094</v>
+        <v>309903.1685367265</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.141946665791462e-06</v>
+        <v>8.409583733662402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>253273.2331796244</v>
+        <v>280326.4450835019</v>
       </c>
     </row>
     <row r="5">
@@ -11382,28 +11382,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.3113055065744</v>
+        <v>202.2548975989748</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.7098829673618</v>
+        <v>276.7340737511283</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.1642379965239</v>
+        <v>250.3229621511136</v>
       </c>
       <c r="AD5" t="n">
-        <v>180311.3055065744</v>
+        <v>202254.8975989748</v>
       </c>
       <c r="AE5" t="n">
-        <v>246709.8829673618</v>
+        <v>276734.0737511283</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310621039929294e-06</v>
+        <v>8.752051029233949e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.892708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>223164.2379965239</v>
+        <v>250322.9621511136</v>
       </c>
     </row>
     <row r="6">
@@ -11488,28 +11488,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.5816800012146</v>
+        <v>193.525272093615</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.7656242270379</v>
+        <v>264.7898150108043</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.3599225465003</v>
+        <v>239.51864670109</v>
       </c>
       <c r="AD6" t="n">
-        <v>171581.6800012146</v>
+        <v>193525.272093615</v>
       </c>
       <c r="AE6" t="n">
-        <v>234765.6242270379</v>
+        <v>264789.8150108043</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.409860213252029e-06</v>
+        <v>8.953540861203457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.805208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>212359.9225465003</v>
+        <v>239518.64670109</v>
       </c>
     </row>
     <row r="7">
@@ -11594,28 +11594,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.8538386969851</v>
+        <v>186.7974307893855</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.5602949431853</v>
+        <v>255.5844857269516</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.0331369697348</v>
+        <v>231.1918611243245</v>
       </c>
       <c r="AD7" t="n">
-        <v>164853.8386969851</v>
+        <v>186797.4307893855</v>
       </c>
       <c r="AE7" t="n">
-        <v>225560.2949431853</v>
+        <v>255584.4857269517</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.478167696188458e-06</v>
+        <v>9.092228667624028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.747916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>204033.1369697348</v>
+        <v>231191.8611243245</v>
       </c>
     </row>
     <row r="8">
@@ -11700,28 +11700,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.4201348558628</v>
+        <v>181.3637269482632</v>
       </c>
       <c r="AB8" t="n">
-        <v>218.1256616296705</v>
+        <v>248.1498524134369</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.3080546250861</v>
+        <v>224.4667787796758</v>
       </c>
       <c r="AD8" t="n">
-        <v>159420.1348558628</v>
+        <v>181363.7269482632</v>
       </c>
       <c r="AE8" t="n">
-        <v>218125.6616296705</v>
+        <v>248149.8524134369</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.520859873023726e-06</v>
+        <v>9.178908546636885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.7125</v>
       </c>
       <c r="AH8" t="n">
-        <v>197308.0546250861</v>
+        <v>224466.7787796758</v>
       </c>
     </row>
     <row r="9">
@@ -11806,28 +11806,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.5289514669311</v>
+        <v>181.4725435593315</v>
       </c>
       <c r="AB9" t="n">
-        <v>218.274549317584</v>
+        <v>248.2987401013504</v>
       </c>
       <c r="AC9" t="n">
-        <v>197.4427326810304</v>
+        <v>224.6014568356202</v>
       </c>
       <c r="AD9" t="n">
-        <v>159528.9514669311</v>
+        <v>181472.5435593315</v>
       </c>
       <c r="AE9" t="n">
-        <v>218274.549317584</v>
+        <v>248298.7401013504</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.529237205836684e-06</v>
+        <v>9.195917428556388e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.705208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>197442.7326810304</v>
+        <v>224601.4568356202</v>
       </c>
     </row>
   </sheetData>
@@ -12103,28 +12103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.6229768534047</v>
+        <v>220.6771008898131</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.8187666229212</v>
+        <v>301.9401450238902</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.9265895979438</v>
+        <v>273.1234013585544</v>
       </c>
       <c r="AD2" t="n">
-        <v>190622.9768534047</v>
+        <v>220677.1008898132</v>
       </c>
       <c r="AE2" t="n">
-        <v>260818.7666229212</v>
+        <v>301940.1450238902</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930463757511004e-06</v>
+        <v>8.752375073912484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235926.5895979438</v>
+        <v>273123.4013585544</v>
       </c>
     </row>
     <row r="3">
@@ -12209,28 +12209,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.0140596583681</v>
+        <v>158.1070362523548</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.8369251750854</v>
+        <v>216.3290221905298</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.8145940707175</v>
+        <v>195.6828839324172</v>
       </c>
       <c r="AD3" t="n">
-        <v>138014.0596583681</v>
+        <v>158107.0362523548</v>
       </c>
       <c r="AE3" t="n">
-        <v>188836.9251750854</v>
+        <v>216329.0221905298</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.62567994743252e-06</v>
+        <v>1.030048573643205e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.938541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170814.5940707175</v>
+        <v>195682.8839324171</v>
       </c>
     </row>
     <row r="4">
@@ -12315,28 +12315,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.3920690060916</v>
+        <v>149.4850456000783</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.0399371892645</v>
+        <v>204.5320342047089</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.143494061083</v>
+        <v>185.0117839227826</v>
       </c>
       <c r="AD4" t="n">
-        <v>129392.0690060916</v>
+        <v>149485.0456000783</v>
       </c>
       <c r="AE4" t="n">
-        <v>177039.9371892645</v>
+        <v>204532.0342047089</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.777140883400327e-06</v>
+        <v>1.063775965687027e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.813541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>160143.494061083</v>
+        <v>185011.7839227826</v>
       </c>
     </row>
     <row r="5">
@@ -12421,28 +12421,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.2908009322763</v>
+        <v>150.3837775262631</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.2696218599242</v>
+        <v>205.7617188753686</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.2558193526486</v>
+        <v>186.1241092143482</v>
       </c>
       <c r="AD5" t="n">
-        <v>130290.8009322764</v>
+        <v>150383.7775262631</v>
       </c>
       <c r="AE5" t="n">
-        <v>178269.6218599242</v>
+        <v>205761.7188753686</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778015369173814e-06</v>
+        <v>1.063970696587973e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>161255.8193526486</v>
+        <v>186124.1092143482</v>
       </c>
     </row>
   </sheetData>
@@ -12718,28 +12718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.8371034738971</v>
+        <v>869.2607734382439</v>
       </c>
       <c r="AB2" t="n">
-        <v>1124.473781867109</v>
+        <v>1189.360939296988</v>
       </c>
       <c r="AC2" t="n">
-        <v>1017.155582334576</v>
+        <v>1075.850000529045</v>
       </c>
       <c r="AD2" t="n">
-        <v>821837.1034738971</v>
+        <v>869260.7734382439</v>
       </c>
       <c r="AE2" t="n">
-        <v>1124473.781867109</v>
+        <v>1189360.939296988</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.857232814162773e-06</v>
+        <v>3.511588329193105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.388541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1017155.582334576</v>
+        <v>1075850.000529045</v>
       </c>
     </row>
     <row r="3">
@@ -12824,28 +12824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>364.7239306211448</v>
+        <v>388.4784807848795</v>
       </c>
       <c r="AB3" t="n">
-        <v>499.0313723600609</v>
+        <v>531.5333958708736</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.404518576946</v>
+        <v>480.8045945807631</v>
       </c>
       <c r="AD3" t="n">
-        <v>364723.9306211448</v>
+        <v>388478.4807848795</v>
       </c>
       <c r="AE3" t="n">
-        <v>499031.3723600609</v>
+        <v>531533.3958708736</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.05625322575425e-06</v>
+        <v>5.778652561367458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.097916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>451404.518576946</v>
+        <v>480804.5945807631</v>
       </c>
     </row>
     <row r="4">
@@ -12930,28 +12930,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.953682940395</v>
+        <v>316.6228922495581</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.8321532033964</v>
+        <v>433.2174095920111</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.5772950731237</v>
+        <v>391.871748045002</v>
       </c>
       <c r="AD4" t="n">
-        <v>292953.682940395</v>
+        <v>316622.8922495581</v>
       </c>
       <c r="AE4" t="n">
-        <v>400832.1532033964</v>
+        <v>433217.4095920111</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.479955960697328e-06</v>
+        <v>6.579774298893958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.477083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>362577.2950731237</v>
+        <v>391871.748045002</v>
       </c>
     </row>
     <row r="5">
@@ -13036,28 +13036,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>268.1520262805494</v>
+        <v>291.8212355897125</v>
       </c>
       <c r="AB5" t="n">
-        <v>366.8974323895264</v>
+        <v>399.2826887781413</v>
       </c>
       <c r="AC5" t="n">
-        <v>331.8812563860498</v>
+        <v>361.1757093579282</v>
       </c>
       <c r="AD5" t="n">
-        <v>268152.0262805494</v>
+        <v>291821.2355897125</v>
       </c>
       <c r="AE5" t="n">
-        <v>366897.4323895264</v>
+        <v>399282.6887781413</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703099088312955e-06</v>
+        <v>7.001685217492453e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.207291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>331881.2563860497</v>
+        <v>361175.7093579281</v>
       </c>
     </row>
     <row r="6">
@@ -13142,28 +13142,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.0724363185682</v>
+        <v>277.7416456277345</v>
       </c>
       <c r="AB6" t="n">
-        <v>347.6331162557088</v>
+        <v>380.0183726444923</v>
       </c>
       <c r="AC6" t="n">
-        <v>314.4554995465107</v>
+        <v>343.7499525184371</v>
       </c>
       <c r="AD6" t="n">
-        <v>254072.4363185682</v>
+        <v>277741.6456277345</v>
       </c>
       <c r="AE6" t="n">
-        <v>347633.1162557089</v>
+        <v>380018.3726444923</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.840843606097132e-06</v>
+        <v>7.262127547270746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.056249999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>314455.4995465107</v>
+        <v>343749.9525184371</v>
       </c>
     </row>
     <row r="7">
@@ -13248,28 +13248,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.795480054836</v>
+        <v>268.2564893284712</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.521046022623</v>
+        <v>367.0403633402776</v>
       </c>
       <c r="AC7" t="n">
-        <v>288.1218444374142</v>
+        <v>332.0105462074661</v>
       </c>
       <c r="AD7" t="n">
-        <v>232795.4800548361</v>
+        <v>268256.4893284712</v>
       </c>
       <c r="AE7" t="n">
-        <v>318521.046022623</v>
+        <v>367040.3633402776</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.932374165145901e-06</v>
+        <v>7.435190202888896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.961458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>288121.8444374141</v>
+        <v>332010.546207466</v>
       </c>
     </row>
     <row r="8">
@@ -13354,28 +13354,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>226.0989061795564</v>
+        <v>249.8533668347397</v>
       </c>
       <c r="AB8" t="n">
-        <v>309.3584982144811</v>
+        <v>341.8603992557286</v>
       </c>
       <c r="AC8" t="n">
-        <v>279.8337573323618</v>
+        <v>309.2337225549475</v>
       </c>
       <c r="AD8" t="n">
-        <v>226098.9061795564</v>
+        <v>249853.3668347397</v>
       </c>
       <c r="AE8" t="n">
-        <v>309358.498214481</v>
+        <v>341860.3992557286</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.996535292322245e-06</v>
+        <v>7.556503731091815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.897916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>279833.7573323618</v>
+        <v>309233.7225549475</v>
       </c>
     </row>
     <row r="9">
@@ -13460,28 +13460,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>220.9208627383534</v>
+        <v>244.6753233935367</v>
       </c>
       <c r="AB9" t="n">
-        <v>302.2736707390766</v>
+        <v>334.775571780324</v>
       </c>
       <c r="AC9" t="n">
-        <v>273.4250958475897</v>
+        <v>302.8250610701755</v>
       </c>
       <c r="AD9" t="n">
-        <v>220920.8627383534</v>
+        <v>244675.3233935367</v>
       </c>
       <c r="AE9" t="n">
-        <v>302273.6707390766</v>
+        <v>334775.571780324</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.047385602904894e-06</v>
+        <v>7.652649650879676e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.848958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>273425.0958475897</v>
+        <v>302825.0610701755</v>
       </c>
     </row>
     <row r="10">
@@ -13566,28 +13566,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>215.8581172329703</v>
+        <v>239.6125778881536</v>
       </c>
       <c r="AB10" t="n">
-        <v>295.3465989860466</v>
+        <v>327.8485000272941</v>
       </c>
       <c r="AC10" t="n">
-        <v>267.1591341004605</v>
+        <v>296.5590993230463</v>
       </c>
       <c r="AD10" t="n">
-        <v>215858.1172329703</v>
+        <v>239612.5778881536</v>
       </c>
       <c r="AE10" t="n">
-        <v>295346.5989860466</v>
+        <v>327848.500027294</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.092253524007232e-06</v>
+        <v>7.737484285986612e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.807291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>267159.1341004605</v>
+        <v>296559.0993230463</v>
       </c>
     </row>
     <row r="11">
@@ -13672,28 +13672,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.4593648825047</v>
+        <v>235.2138255376881</v>
       </c>
       <c r="AB11" t="n">
-        <v>289.3280319608849</v>
+        <v>321.8299330021325</v>
       </c>
       <c r="AC11" t="n">
-        <v>261.7149706650665</v>
+        <v>291.1149358876523</v>
       </c>
       <c r="AD11" t="n">
-        <v>211459.3648825047</v>
+        <v>235213.8255376881</v>
       </c>
       <c r="AE11" t="n">
-        <v>289328.0319608849</v>
+        <v>321829.9330021325</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.119323836405643e-06</v>
+        <v>7.788667849167796e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.782291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>261714.9706650665</v>
+        <v>291114.9358876523</v>
       </c>
     </row>
     <row r="12">
@@ -13778,28 +13778,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>207.9464276485161</v>
+        <v>231.7008883036994</v>
       </c>
       <c r="AB12" t="n">
-        <v>284.5214762574913</v>
+        <v>317.0233772987388</v>
       </c>
       <c r="AC12" t="n">
-        <v>257.3671458919599</v>
+        <v>286.7671111145457</v>
       </c>
       <c r="AD12" t="n">
-        <v>207946.4276485161</v>
+        <v>231700.8883036994</v>
       </c>
       <c r="AE12" t="n">
-        <v>284521.4762574913</v>
+        <v>317023.3772987387</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.149086224070193e-06</v>
+        <v>7.844941490455398e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.755208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>257367.1458919599</v>
+        <v>286767.1111145457</v>
       </c>
     </row>
     <row r="13">
@@ -13884,28 +13884,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>204.061092729012</v>
+        <v>227.8155533841954</v>
       </c>
       <c r="AB13" t="n">
-        <v>279.2053896117492</v>
+        <v>311.7072906529967</v>
       </c>
       <c r="AC13" t="n">
-        <v>252.5584190945114</v>
+        <v>281.9583843170971</v>
       </c>
       <c r="AD13" t="n">
-        <v>204061.092729012</v>
+        <v>227815.5533841954</v>
       </c>
       <c r="AE13" t="n">
-        <v>279205.3896117492</v>
+        <v>311707.2906529967</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.177801693575689e-06</v>
+        <v>7.899235656923835e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.729166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>252558.4190945113</v>
+        <v>281958.3843170971</v>
       </c>
     </row>
     <row r="14">
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>200.7283020179815</v>
+        <v>224.482762673165</v>
       </c>
       <c r="AB14" t="n">
-        <v>274.6453183285705</v>
+        <v>307.147219369818</v>
       </c>
       <c r="AC14" t="n">
-        <v>248.4335546144975</v>
+        <v>277.8335198370833</v>
       </c>
       <c r="AD14" t="n">
-        <v>200728.3020179815</v>
+        <v>224482.762673165</v>
       </c>
       <c r="AE14" t="n">
-        <v>274645.3183285705</v>
+        <v>307147.219369818</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.197992258071742e-06</v>
+        <v>7.937411242721958e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.711458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>248433.5546144975</v>
+        <v>277833.5198370833</v>
       </c>
     </row>
     <row r="15">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>198.5886562579537</v>
+        <v>222.3431169131372</v>
       </c>
       <c r="AB15" t="n">
-        <v>271.717760605193</v>
+        <v>304.2196616464405</v>
       </c>
       <c r="AC15" t="n">
-        <v>245.7853988913851</v>
+        <v>275.1853641139709</v>
       </c>
       <c r="AD15" t="n">
-        <v>198588.6562579537</v>
+        <v>222343.1169131371</v>
       </c>
       <c r="AE15" t="n">
-        <v>271717.760605193</v>
+        <v>304219.6616464405</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.203825087815046e-06</v>
+        <v>7.948439745285859e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.706249999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>245785.3988913851</v>
+        <v>275185.3641139709</v>
       </c>
     </row>
     <row r="16">
@@ -14202,28 +14202,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>194.9620040525936</v>
+        <v>218.716464707777</v>
       </c>
       <c r="AB16" t="n">
-        <v>266.7556150612185</v>
+        <v>299.2575161024659</v>
       </c>
       <c r="AC16" t="n">
-        <v>241.2968335537109</v>
+        <v>270.6967987762968</v>
       </c>
       <c r="AD16" t="n">
-        <v>194962.0040525936</v>
+        <v>218716.464707777</v>
       </c>
       <c r="AE16" t="n">
-        <v>266755.6150612185</v>
+        <v>299257.5161024659</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.224464331522122e-06</v>
+        <v>7.98746367743505e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.6875</v>
       </c>
       <c r="AH16" t="n">
-        <v>241296.833553711</v>
+        <v>270696.7987762968</v>
       </c>
     </row>
     <row r="17">
@@ -14308,28 +14308,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>193.9275671428407</v>
+        <v>217.6820277980241</v>
       </c>
       <c r="AB17" t="n">
-        <v>265.3402528451597</v>
+        <v>297.8421538864072</v>
       </c>
       <c r="AC17" t="n">
-        <v>240.016551521079</v>
+        <v>269.4165167436648</v>
       </c>
       <c r="AD17" t="n">
-        <v>193927.5671428407</v>
+        <v>217682.0277980241</v>
       </c>
       <c r="AE17" t="n">
-        <v>265340.2528451597</v>
+        <v>297842.1538864071</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.224015652311098e-06</v>
+        <v>7.98661533108398e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>240016.551521079</v>
+        <v>269416.5167436647</v>
       </c>
     </row>
     <row r="18">
@@ -14414,28 +14414,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>194.2198135169093</v>
+        <v>217.9742741720927</v>
       </c>
       <c r="AB18" t="n">
-        <v>265.7401172271601</v>
+        <v>298.2420182684077</v>
       </c>
       <c r="AC18" t="n">
-        <v>240.3782534076747</v>
+        <v>269.7782186302604</v>
       </c>
       <c r="AD18" t="n">
-        <v>194219.8135169093</v>
+        <v>217974.2741720927</v>
       </c>
       <c r="AE18" t="n">
-        <v>265740.1172271601</v>
+        <v>298242.0182684077</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.232091878109518e-06</v>
+        <v>8.001885565403228e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.68125</v>
       </c>
       <c r="AH18" t="n">
-        <v>240378.2534076747</v>
+        <v>269778.2186302604</v>
       </c>
     </row>
   </sheetData>
@@ -14711,28 +14711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.6116412677385</v>
+        <v>180.1255678913152</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.7559332679509</v>
+        <v>246.4557485679989</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.7827354263102</v>
+        <v>222.9343578275563</v>
       </c>
       <c r="AD2" t="n">
-        <v>160611.6412677385</v>
+        <v>180125.5678913152</v>
       </c>
       <c r="AE2" t="n">
-        <v>219755.9332679509</v>
+        <v>246455.7485679989</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.247172231175611e-06</v>
+        <v>9.736925831005037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.389583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>198782.7354263102</v>
+        <v>222934.3578275563</v>
       </c>
     </row>
     <row r="3">
@@ -14817,28 +14817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.8052441691738</v>
+        <v>141.4044221387711</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.6593087403095</v>
+        <v>193.4757686930068</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.7535782219894</v>
+        <v>175.0107128739477</v>
       </c>
       <c r="AD3" t="n">
-        <v>121805.2441691738</v>
+        <v>141404.422138771</v>
       </c>
       <c r="AE3" t="n">
-        <v>166659.3087403095</v>
+        <v>193475.7686930068</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.805073358259533e-06</v>
+        <v>1.101595140373219e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>150753.5782219894</v>
+        <v>175010.7128739477</v>
       </c>
     </row>
     <row r="4">
@@ -14923,28 +14923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.316318948182</v>
+        <v>141.9154969177793</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.3585837999761</v>
+        <v>194.1750437526734</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.3861154514004</v>
+        <v>175.6432501033587</v>
       </c>
       <c r="AD4" t="n">
-        <v>122316.318948182</v>
+        <v>141915.4969177793</v>
       </c>
       <c r="AE4" t="n">
-        <v>167358.5837999762</v>
+        <v>194175.0437526734</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.813127753741975e-06</v>
+        <v>1.103441664299197e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.873958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>151386.1154514004</v>
+        <v>175643.2501033587</v>
       </c>
     </row>
   </sheetData>
@@ -15220,28 +15220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.6760574650305</v>
+        <v>567.171879277087</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.7801965470132</v>
+        <v>776.0295870842708</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.6580163853635</v>
+        <v>701.9664124573134</v>
       </c>
       <c r="AD2" t="n">
-        <v>521676.0574650305</v>
+        <v>567171.8792770869</v>
       </c>
       <c r="AE2" t="n">
-        <v>713780.1965470132</v>
+        <v>776029.5870842708</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.376658928556272e-06</v>
+        <v>4.658218654700329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.814583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>645658.0163853634</v>
+        <v>701966.4124573134</v>
       </c>
     </row>
     <row r="3">
@@ -15326,28 +15326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>280.7428682351309</v>
+        <v>314.8433993805302</v>
       </c>
       <c r="AB3" t="n">
-        <v>384.1247778205287</v>
+        <v>430.7826289429224</v>
       </c>
       <c r="AC3" t="n">
-        <v>347.4644481478484</v>
+        <v>389.6693394438262</v>
       </c>
       <c r="AD3" t="n">
-        <v>280742.8682351309</v>
+        <v>314843.3993805302</v>
       </c>
       <c r="AE3" t="n">
-        <v>384124.7778205287</v>
+        <v>430782.6289429224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458711233680452e-06</v>
+        <v>6.779026218852086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.683333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>347464.4481478484</v>
+        <v>389669.3394438262</v>
       </c>
     </row>
     <row r="4">
@@ -15432,28 +15432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.9070602586083</v>
+        <v>265.6123902459047</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.3561561488522</v>
+        <v>363.4225903260912</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.6365510708995</v>
+        <v>328.7380483721773</v>
       </c>
       <c r="AD4" t="n">
-        <v>242907.0602586083</v>
+        <v>265612.3902459047</v>
       </c>
       <c r="AE4" t="n">
-        <v>332356.1561488522</v>
+        <v>363422.5903260912</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.823489895531484e-06</v>
+        <v>7.49398735486301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.236458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>300636.5510708995</v>
+        <v>328738.0483721773</v>
       </c>
     </row>
     <row r="5">
@@ -15538,28 +15538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>224.3893131601813</v>
+        <v>247.0946431474744</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.0193576234523</v>
+        <v>338.0857918005146</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.7178610363356</v>
+        <v>305.8193583375631</v>
       </c>
       <c r="AD5" t="n">
-        <v>224389.3131601813</v>
+        <v>247094.6431474744</v>
       </c>
       <c r="AE5" t="n">
-        <v>307019.3576234523</v>
+        <v>338085.7918005146</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.029202670309367e-06</v>
+        <v>7.897181550490654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.019791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>277717.8610363356</v>
+        <v>305819.3583375631</v>
       </c>
     </row>
     <row r="6">
@@ -15644,28 +15644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.6737612916108</v>
+        <v>225.4643426249244</v>
       </c>
       <c r="AB6" t="n">
-        <v>277.3071815343544</v>
+        <v>308.4902603640659</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.8413733318706</v>
+        <v>279.0483828838104</v>
       </c>
       <c r="AD6" t="n">
-        <v>202673.7612916107</v>
+        <v>225464.3426249244</v>
       </c>
       <c r="AE6" t="n">
-        <v>277307.1815343543</v>
+        <v>308490.2603640659</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.14286558668324e-06</v>
+        <v>8.119959295769421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.909375</v>
       </c>
       <c r="AH6" t="n">
-        <v>250841.3733318707</v>
+        <v>279048.3828838104</v>
       </c>
     </row>
     <row r="7">
@@ -15750,28 +15750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>195.458289150894</v>
+        <v>218.2488704842076</v>
       </c>
       <c r="AB7" t="n">
-        <v>267.434654227266</v>
+        <v>298.6177330569775</v>
       </c>
       <c r="AC7" t="n">
-        <v>241.9110661747886</v>
+        <v>270.1180757267283</v>
       </c>
       <c r="AD7" t="n">
-        <v>195458.289150894</v>
+        <v>218248.8704842076</v>
       </c>
       <c r="AE7" t="n">
-        <v>267434.654227266</v>
+        <v>298617.7330569775</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.217967075887864e-06</v>
+        <v>8.267157176712845e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.839583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>241911.0661747886</v>
+        <v>270118.0757267283</v>
       </c>
     </row>
     <row r="8">
@@ -15856,28 +15856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.5127996712333</v>
+        <v>212.3033810045469</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.2997732247144</v>
+        <v>290.4828520544258</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.5525667977407</v>
+        <v>262.7595763496804</v>
       </c>
       <c r="AD8" t="n">
-        <v>189512.7996712333</v>
+        <v>212303.3810045469</v>
       </c>
       <c r="AE8" t="n">
-        <v>259299.7732247144</v>
+        <v>290482.8520544259</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.276897644021512e-06</v>
+        <v>8.382660275838225e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.7875</v>
       </c>
       <c r="AH8" t="n">
-        <v>234552.5667977407</v>
+        <v>262759.5763496804</v>
       </c>
     </row>
     <row r="9">
@@ -15962,28 +15962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>184.472643679579</v>
+        <v>207.2632250128927</v>
       </c>
       <c r="AB9" t="n">
-        <v>252.4036094409472</v>
+        <v>283.5866882706587</v>
       </c>
       <c r="AC9" t="n">
-        <v>228.3145632066674</v>
+        <v>256.5215727586071</v>
       </c>
       <c r="AD9" t="n">
-        <v>184472.643679579</v>
+        <v>207263.2250128927</v>
       </c>
       <c r="AE9" t="n">
-        <v>252403.6094409472</v>
+        <v>283586.6882706587</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.322767083597835e-06</v>
+        <v>8.472563743495182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.746875</v>
       </c>
       <c r="AH9" t="n">
-        <v>228314.5632066674</v>
+        <v>256521.5727586072</v>
       </c>
     </row>
     <row r="10">
@@ -16068,28 +16068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>178.871047589089</v>
+        <v>201.6616289224027</v>
       </c>
       <c r="AB10" t="n">
-        <v>244.7392585449644</v>
+        <v>275.9223373746759</v>
       </c>
       <c r="AC10" t="n">
-        <v>221.3816872032107</v>
+        <v>249.5886967551504</v>
       </c>
       <c r="AD10" t="n">
-        <v>178871.0475890891</v>
+        <v>201661.6289224027</v>
       </c>
       <c r="AE10" t="n">
-        <v>244739.2585449644</v>
+        <v>275922.3373746759</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.356819311622293e-06</v>
+        <v>8.539305639823567e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.717708333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>221381.6872032107</v>
+        <v>249588.6967551504</v>
       </c>
     </row>
     <row r="11">
@@ -16174,28 +16174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>175.654780015081</v>
+        <v>198.4453613483946</v>
       </c>
       <c r="AB11" t="n">
-        <v>240.3386193584976</v>
+        <v>271.5216981882091</v>
       </c>
       <c r="AC11" t="n">
-        <v>217.401038844363</v>
+        <v>245.6080483963028</v>
       </c>
       <c r="AD11" t="n">
-        <v>175654.780015081</v>
+        <v>198445.3613483947</v>
       </c>
       <c r="AE11" t="n">
-        <v>240338.6193584976</v>
+        <v>271521.6981882091</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.384807444245133e-06</v>
+        <v>8.594161992970185e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH11" t="n">
-        <v>217401.038844363</v>
+        <v>245608.0483963028</v>
       </c>
     </row>
     <row r="12">
@@ -16280,28 +16280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>174.3991331524076</v>
+        <v>197.1897144857213</v>
       </c>
       <c r="AB12" t="n">
-        <v>238.6205879257589</v>
+        <v>269.8036667554703</v>
       </c>
       <c r="AC12" t="n">
-        <v>215.846973920292</v>
+        <v>244.0539834722318</v>
       </c>
       <c r="AD12" t="n">
-        <v>174399.1331524077</v>
+        <v>197189.7144857213</v>
       </c>
       <c r="AE12" t="n">
-        <v>238620.5879257589</v>
+        <v>269803.6667554703</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.389783112266973e-06</v>
+        <v>8.603914233529585e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.689583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>215846.973920292</v>
+        <v>244053.9834722318</v>
       </c>
     </row>
     <row r="13">
@@ -16386,28 +16386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>174.9791641495061</v>
+        <v>197.7697454828198</v>
       </c>
       <c r="AB13" t="n">
-        <v>239.4142119251501</v>
+        <v>270.5972907548617</v>
       </c>
       <c r="AC13" t="n">
-        <v>216.56485555904</v>
+        <v>244.7718651109797</v>
       </c>
       <c r="AD13" t="n">
-        <v>174979.1641495061</v>
+        <v>197769.7454828198</v>
       </c>
       <c r="AE13" t="n">
-        <v>239414.2119251501</v>
+        <v>270597.2907548617</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.390094091518337e-06</v>
+        <v>8.604523748564547e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.689583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>216564.85555904</v>
+        <v>244771.8651109797</v>
       </c>
     </row>
   </sheetData>
@@ -16683,28 +16683,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>654.2221948269597</v>
+        <v>700.8057038909781</v>
       </c>
       <c r="AB2" t="n">
-        <v>895.1356692084877</v>
+        <v>958.8732814292542</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.7051772700311</v>
+        <v>867.3597612367486</v>
       </c>
       <c r="AD2" t="n">
-        <v>654222.1948269597</v>
+        <v>700805.703890978</v>
       </c>
       <c r="AE2" t="n">
-        <v>895135.6692084877</v>
+        <v>958873.2814292542</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.105765874958943e-06</v>
+        <v>4.048762536149085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.536458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>809705.1772700311</v>
+        <v>867359.7612367485</v>
       </c>
     </row>
     <row r="3">
@@ -16789,28 +16789,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.5412588277882</v>
+        <v>350.3935497712303</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.7374710260466</v>
+        <v>479.423913069424</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.5330527386663</v>
+        <v>433.6683676817655</v>
       </c>
       <c r="AD3" t="n">
-        <v>315541.2588277882</v>
+        <v>350393.5497712303</v>
       </c>
       <c r="AE3" t="n">
-        <v>431737.4710260467</v>
+        <v>479423.913069424</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.249296381212873e-06</v>
+        <v>6.247432164013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.884374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>390533.0527386663</v>
+        <v>433668.3676817655</v>
       </c>
     </row>
     <row r="4">
@@ -16895,28 +16895,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.0057766895159</v>
+        <v>290.2122798755044</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.3290831301113</v>
+        <v>397.0812445878454</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.4625881787613</v>
+        <v>359.1843679114076</v>
       </c>
       <c r="AD4" t="n">
-        <v>267005.7766895159</v>
+        <v>290212.2798755044</v>
       </c>
       <c r="AE4" t="n">
-        <v>365329.0831301113</v>
+        <v>397081.2445878454</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.650583265501822e-06</v>
+        <v>7.018987692895701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.346875</v>
       </c>
       <c r="AH4" t="n">
-        <v>330462.5881787613</v>
+        <v>359184.3679114076</v>
       </c>
     </row>
     <row r="5">
@@ -17001,28 +17001,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>246.1287192991389</v>
+        <v>269.3352224851306</v>
       </c>
       <c r="AB5" t="n">
-        <v>336.7641721776699</v>
+        <v>368.5163336355669</v>
       </c>
       <c r="AC5" t="n">
-        <v>304.6238722366176</v>
+        <v>333.3456519693104</v>
       </c>
       <c r="AD5" t="n">
-        <v>246128.7192991389</v>
+        <v>269335.2224851306</v>
       </c>
       <c r="AE5" t="n">
-        <v>336764.1721776699</v>
+        <v>368516.3336355669</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.858844150400453e-06</v>
+        <v>7.419411537991621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>304623.8722366176</v>
+        <v>333345.6519693104</v>
       </c>
     </row>
     <row r="6">
@@ -17107,28 +17107,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.6908516212335</v>
+        <v>257.4578017101035</v>
       </c>
       <c r="AB6" t="n">
-        <v>304.6954476150302</v>
+        <v>352.2651225361855</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.6157417374884</v>
+        <v>318.6454336486418</v>
       </c>
       <c r="AD6" t="n">
-        <v>222690.8516212335</v>
+        <v>257457.8017101035</v>
       </c>
       <c r="AE6" t="n">
-        <v>304695.4476150302</v>
+        <v>352265.1225361854</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.983922560423698e-06</v>
+        <v>7.659900182339645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.983333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>275615.7417374884</v>
+        <v>318645.4336486417</v>
       </c>
     </row>
     <row r="7">
@@ -17213,28 +17213,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>213.8885945298993</v>
+        <v>237.1803490619081</v>
       </c>
       <c r="AB7" t="n">
-        <v>292.6518111344968</v>
+        <v>324.5206172448637</v>
       </c>
       <c r="AC7" t="n">
-        <v>264.7215330193033</v>
+        <v>293.5488250026572</v>
       </c>
       <c r="AD7" t="n">
-        <v>213888.5945298992</v>
+        <v>237180.3490619081</v>
       </c>
       <c r="AE7" t="n">
-        <v>292651.8111344968</v>
+        <v>324520.6172448637</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.076703013169321e-06</v>
+        <v>7.838289444712296e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.892708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>264721.5330193033</v>
+        <v>293548.8250026572</v>
       </c>
     </row>
     <row r="8">
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>207.8002765738998</v>
+        <v>231.0920311059087</v>
       </c>
       <c r="AB8" t="n">
-        <v>284.321505909471</v>
+        <v>316.190312019838</v>
       </c>
       <c r="AC8" t="n">
-        <v>257.1862604332945</v>
+        <v>286.0135524166485</v>
       </c>
       <c r="AD8" t="n">
-        <v>207800.2765738998</v>
+        <v>231092.0311059087</v>
       </c>
       <c r="AE8" t="n">
-        <v>284321.505909471</v>
+        <v>316190.312019838</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.134290880390742e-06</v>
+        <v>7.949013814460839e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.838541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>257186.2604332945</v>
+        <v>286013.5524166485</v>
       </c>
     </row>
     <row r="9">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>202.3869331880645</v>
+        <v>225.6786877200734</v>
       </c>
       <c r="AB9" t="n">
-        <v>276.9147306691197</v>
+        <v>308.7835367794866</v>
       </c>
       <c r="AC9" t="n">
-        <v>250.4863774264057</v>
+        <v>279.3136694097596</v>
       </c>
       <c r="AD9" t="n">
-        <v>202386.9331880645</v>
+        <v>225678.6877200734</v>
       </c>
       <c r="AE9" t="n">
-        <v>276914.7306691197</v>
+        <v>308783.5367794866</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.187765328524919e-06</v>
+        <v>8.051829300655916e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.789583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>250486.3774264056</v>
+        <v>279313.6694097596</v>
       </c>
     </row>
     <row r="10">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>198.0469354919907</v>
+        <v>221.3386900239995</v>
       </c>
       <c r="AB10" t="n">
-        <v>270.9765543541693</v>
+        <v>302.8453604645362</v>
       </c>
       <c r="AC10" t="n">
-        <v>245.1149323246693</v>
+        <v>273.9422243080233</v>
       </c>
       <c r="AD10" t="n">
-        <v>198046.9354919907</v>
+        <v>221338.6900239995</v>
       </c>
       <c r="AE10" t="n">
-        <v>270976.5543541692</v>
+        <v>302845.3604645362</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.220672681222873e-06</v>
+        <v>8.115100369083653e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.760416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>245114.9323246693</v>
+        <v>273942.2243080233</v>
       </c>
     </row>
     <row r="11">
@@ -17637,28 +17637,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>194.0197691360922</v>
+        <v>217.311523668101</v>
       </c>
       <c r="AB11" t="n">
-        <v>265.4664076799911</v>
+        <v>297.335213790358</v>
       </c>
       <c r="AC11" t="n">
-        <v>240.1306663155335</v>
+        <v>268.9579582988875</v>
       </c>
       <c r="AD11" t="n">
-        <v>194019.7691360922</v>
+        <v>217311.523668101</v>
       </c>
       <c r="AE11" t="n">
-        <v>265466.407679991</v>
+        <v>297335.213790358</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.245505544601423e-06</v>
+        <v>8.162846592017549e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.7375</v>
       </c>
       <c r="AH11" t="n">
-        <v>240130.6663155335</v>
+        <v>268957.9582988875</v>
       </c>
     </row>
     <row r="12">
@@ -17743,28 +17743,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>190.4060917775942</v>
+        <v>213.6978463096031</v>
       </c>
       <c r="AB12" t="n">
-        <v>260.5220148939032</v>
+        <v>292.3908210042701</v>
       </c>
       <c r="AC12" t="n">
-        <v>235.6581594374495</v>
+        <v>264.4854514208034</v>
       </c>
       <c r="AD12" t="n">
-        <v>190406.0917775942</v>
+        <v>213697.8463096031</v>
       </c>
       <c r="AE12" t="n">
-        <v>260522.0148939032</v>
+        <v>292390.8210042701</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.273842431646883e-06</v>
+        <v>8.217330012052546e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.713541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>235658.1594374495</v>
+        <v>264485.4514208034</v>
       </c>
     </row>
     <row r="13">
@@ -17849,28 +17849,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>187.033928278789</v>
+        <v>210.3256828107978</v>
       </c>
       <c r="AB13" t="n">
-        <v>255.9080720254861</v>
+        <v>287.7768781358531</v>
       </c>
       <c r="AC13" t="n">
-        <v>231.4845648006832</v>
+        <v>260.3118567840372</v>
       </c>
       <c r="AD13" t="n">
-        <v>187033.928278789</v>
+        <v>210325.6828107978</v>
       </c>
       <c r="AE13" t="n">
-        <v>255908.0720254862</v>
+        <v>287776.8781358531</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.294409527083105e-06</v>
+        <v>8.256874429819882e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.695833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>231484.5648006832</v>
+        <v>260311.8567840372</v>
       </c>
     </row>
     <row r="14">
@@ -17955,28 +17955,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>184.9084953857266</v>
+        <v>208.2002499177354</v>
       </c>
       <c r="AB14" t="n">
-        <v>252.9999609737182</v>
+        <v>284.8687670840852</v>
       </c>
       <c r="AC14" t="n">
-        <v>228.8539997861356</v>
+        <v>257.6812917694895</v>
       </c>
       <c r="AD14" t="n">
-        <v>184908.4953857266</v>
+        <v>208200.2499177354</v>
       </c>
       <c r="AE14" t="n">
-        <v>252999.9609737182</v>
+        <v>284868.7670840851</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.302026969837261e-06</v>
+        <v>8.271520510474452e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>228853.9997861356</v>
+        <v>257681.2917694895</v>
       </c>
     </row>
     <row r="15">
@@ -18061,28 +18061,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>184.4291977052399</v>
+        <v>207.7209522372488</v>
       </c>
       <c r="AB15" t="n">
-        <v>252.3441647421554</v>
+        <v>284.2129708525223</v>
       </c>
       <c r="AC15" t="n">
-        <v>228.2607918264971</v>
+        <v>257.088083809851</v>
       </c>
       <c r="AD15" t="n">
-        <v>184429.1977052399</v>
+        <v>207720.9522372487</v>
       </c>
       <c r="AE15" t="n">
-        <v>252344.1647421554</v>
+        <v>284212.9708525223</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.311320249997332e-06</v>
+        <v>8.289388728873025e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.68125</v>
       </c>
       <c r="AH15" t="n">
-        <v>228260.7918264971</v>
+        <v>257088.083809851</v>
       </c>
     </row>
     <row r="16">
@@ -18167,28 +18167,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>185.1249956276968</v>
+        <v>208.4167501597057</v>
       </c>
       <c r="AB16" t="n">
-        <v>253.2961861560984</v>
+        <v>285.1649922664654</v>
       </c>
       <c r="AC16" t="n">
-        <v>229.1219536528642</v>
+        <v>257.9492456362181</v>
       </c>
       <c r="AD16" t="n">
-        <v>185124.9956276969</v>
+        <v>208416.7501597057</v>
       </c>
       <c r="AE16" t="n">
-        <v>253296.1861560984</v>
+        <v>285164.9922664654</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.311015552287166e-06</v>
+        <v>8.288802885646843e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.68125</v>
       </c>
       <c r="AH16" t="n">
-        <v>229121.9536528642</v>
+        <v>257949.2456362181</v>
       </c>
     </row>
   </sheetData>
@@ -18464,28 +18464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1045.358773728786</v>
+        <v>1105.652458725041</v>
       </c>
       <c r="AB2" t="n">
-        <v>1430.305992189979</v>
+        <v>1512.802471971506</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.799595742435</v>
+        <v>1368.42272727815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1045358.773728786</v>
+        <v>1105652.458725041</v>
       </c>
       <c r="AE2" t="n">
-        <v>1430305.992189979</v>
+        <v>1512802.471971506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622556682887459e-06</v>
+        <v>3.022700035096819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.440624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293799.595742434</v>
+        <v>1368422.72727815</v>
       </c>
     </row>
     <row r="3">
@@ -18570,28 +18570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.9503316425156</v>
+        <v>441.0583057600321</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.0709089010639</v>
+        <v>603.4754320600417</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.1911589989504</v>
+        <v>545.8805838073192</v>
       </c>
       <c r="AD3" t="n">
-        <v>404950.3316425156</v>
+        <v>441058.305760032</v>
       </c>
       <c r="AE3" t="n">
-        <v>554070.908901064</v>
+        <v>603475.4320600417</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877633834278112e-06</v>
+        <v>5.360813575023532e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>501191.1589989504</v>
+        <v>545880.5838073192</v>
       </c>
     </row>
     <row r="4">
@@ -18676,28 +18676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.0215592328576</v>
+        <v>343.2926109661682</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.4993715802801</v>
+        <v>469.7080953250277</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.8404841873732</v>
+        <v>424.8798139466584</v>
       </c>
       <c r="AD4" t="n">
-        <v>319021.5592328575</v>
+        <v>343292.6109661682</v>
       </c>
       <c r="AE4" t="n">
-        <v>436499.3715802801</v>
+        <v>469708.0953250277</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.328344023969073e-06</v>
+        <v>6.200452473661537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.602083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>394840.4841873733</v>
+        <v>424879.8139466585</v>
       </c>
     </row>
     <row r="5">
@@ -18782,28 +18782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.5398003999134</v>
+        <v>314.6402599326319</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.5293726185274</v>
+        <v>430.5046845884279</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.5897272317931</v>
+        <v>389.4179217084272</v>
       </c>
       <c r="AD5" t="n">
-        <v>290539.8003999133</v>
+        <v>314640.2599326319</v>
       </c>
       <c r="AE5" t="n">
-        <v>397529.3726185274</v>
+        <v>430504.6845884279</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55700775805372e-06</v>
+        <v>6.626435666934653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.30625</v>
       </c>
       <c r="AH5" t="n">
-        <v>359589.7272317931</v>
+        <v>389417.9217084273</v>
       </c>
     </row>
     <row r="6">
@@ -18888,28 +18888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>273.8968282270836</v>
+        <v>297.9972877598021</v>
       </c>
       <c r="AB6" t="n">
-        <v>374.7577238555493</v>
+        <v>407.7330358254499</v>
       </c>
       <c r="AC6" t="n">
-        <v>338.9913726665438</v>
+        <v>368.8195671431781</v>
       </c>
       <c r="AD6" t="n">
-        <v>273896.8282270836</v>
+        <v>297997.2877598021</v>
       </c>
       <c r="AE6" t="n">
-        <v>374757.7238555494</v>
+        <v>407733.0358254499</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.706999403562621e-06</v>
+        <v>6.905858726187758e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.132291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>338991.3726665438</v>
+        <v>368819.5671431781</v>
       </c>
     </row>
     <row r="7">
@@ -18994,28 +18994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.6076353071096</v>
+        <v>287.7080948398281</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.6795961752859</v>
+        <v>393.6549081451864</v>
       </c>
       <c r="AC7" t="n">
-        <v>326.2568417333084</v>
+        <v>356.0850362099426</v>
       </c>
       <c r="AD7" t="n">
-        <v>263607.6353071096</v>
+        <v>287708.0948398281</v>
       </c>
       <c r="AE7" t="n">
-        <v>360679.5961752859</v>
+        <v>393654.9081451864</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.803611669346295e-06</v>
+        <v>7.085840049647845e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.027083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>326256.8417333084</v>
+        <v>356085.0362099426</v>
       </c>
     </row>
     <row r="8">
@@ -19100,28 +19100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>243.1137750804752</v>
+        <v>267.2994859592173</v>
       </c>
       <c r="AB8" t="n">
-        <v>332.6389924877448</v>
+        <v>365.7309491104555</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.8923939065716</v>
+        <v>330.8261006339638</v>
       </c>
       <c r="AD8" t="n">
-        <v>243113.7750804753</v>
+        <v>267299.4859592174</v>
       </c>
       <c r="AE8" t="n">
-        <v>332638.9924877448</v>
+        <v>365730.9491104555</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.882724909820598e-06</v>
+        <v>7.233222016195072e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.944791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>300892.3939065716</v>
+        <v>330826.1006339638</v>
       </c>
     </row>
     <row r="9">
@@ -19206,28 +19206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>237.3141329186583</v>
+        <v>261.4998437974004</v>
       </c>
       <c r="AB9" t="n">
-        <v>324.7036662197966</v>
+        <v>357.7956228425032</v>
       </c>
       <c r="AC9" t="n">
-        <v>293.7144040403334</v>
+        <v>323.6481107677245</v>
       </c>
       <c r="AD9" t="n">
-        <v>237314.1329186583</v>
+        <v>261499.8437974004</v>
       </c>
       <c r="AE9" t="n">
-        <v>324703.6662197966</v>
+        <v>357795.6228425032</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.935810188280119e-06</v>
+        <v>7.332115863636611e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.891666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>293714.4040403334</v>
+        <v>323648.1107677245</v>
       </c>
     </row>
     <row r="10">
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>232.7813123914376</v>
+        <v>256.9670232701764</v>
       </c>
       <c r="AB10" t="n">
-        <v>318.501661200528</v>
+        <v>351.5936178230608</v>
       </c>
       <c r="AC10" t="n">
-        <v>288.1043096755332</v>
+        <v>318.0380164028748</v>
       </c>
       <c r="AD10" t="n">
-        <v>232781.3123914376</v>
+        <v>256967.0232701763</v>
       </c>
       <c r="AE10" t="n">
-        <v>318501.661200528</v>
+        <v>351593.6178230608</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.974631555353012e-06</v>
+        <v>7.404437126031532e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>288104.3096755332</v>
+        <v>318038.0164028748</v>
       </c>
     </row>
     <row r="11">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>228.1635114737058</v>
+        <v>252.3492223524445</v>
       </c>
       <c r="AB11" t="n">
-        <v>312.1833822618921</v>
+        <v>345.2753388844249</v>
       </c>
       <c r="AC11" t="n">
-        <v>282.3890384110385</v>
+        <v>312.32274513838</v>
       </c>
       <c r="AD11" t="n">
-        <v>228163.5114737058</v>
+        <v>252349.2223524445</v>
       </c>
       <c r="AE11" t="n">
-        <v>312183.3822618921</v>
+        <v>345275.3388844249</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>7.477854165129406e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.815625</v>
       </c>
       <c r="AH11" t="n">
-        <v>282389.0384110385</v>
+        <v>312322.74513838</v>
       </c>
     </row>
     <row r="12">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>224.5634583690007</v>
+        <v>248.7491692477394</v>
       </c>
       <c r="AB12" t="n">
-        <v>307.2576307809033</v>
+        <v>340.3495874034361</v>
       </c>
       <c r="AC12" t="n">
-        <v>277.933393738058</v>
+        <v>307.8671004653996</v>
       </c>
       <c r="AD12" t="n">
-        <v>224563.4583690007</v>
+        <v>248749.1692477395</v>
       </c>
       <c r="AE12" t="n">
-        <v>307257.6307809033</v>
+        <v>340349.5874034361</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.041686643933461e-06</v>
+        <v>7.529355670168215e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.789583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>277933.393738058</v>
+        <v>307867.1004653996</v>
       </c>
     </row>
     <row r="13">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>221.7052768627753</v>
+        <v>245.8909877415142</v>
       </c>
       <c r="AB13" t="n">
-        <v>303.3469407500189</v>
+        <v>336.4388973725517</v>
       </c>
       <c r="AC13" t="n">
-        <v>274.3959344750321</v>
+        <v>304.3296412023736</v>
       </c>
       <c r="AD13" t="n">
-        <v>221705.2768627754</v>
+        <v>245890.9877415141</v>
       </c>
       <c r="AE13" t="n">
-        <v>303346.9407500189</v>
+        <v>336438.8973725517</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.058009264180018e-06</v>
+        <v>7.559763473675169e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.775</v>
       </c>
       <c r="AH13" t="n">
-        <v>274395.9344750321</v>
+        <v>304329.6412023737</v>
       </c>
     </row>
     <row r="14">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>218.6676451196215</v>
+        <v>242.8533559983603</v>
       </c>
       <c r="AB14" t="n">
-        <v>299.1907189881834</v>
+        <v>332.2826756107163</v>
       </c>
       <c r="AC14" t="n">
-        <v>270.636376684851</v>
+        <v>300.5700834121926</v>
       </c>
       <c r="AD14" t="n">
-        <v>218667.6451196215</v>
+        <v>242853.3559983603</v>
       </c>
       <c r="AE14" t="n">
-        <v>299190.7189881834</v>
+        <v>332282.6756107163</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.076390593286501e-06</v>
+        <v>7.594006495642462e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.757291666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>270636.376684851</v>
+        <v>300570.0834121926</v>
       </c>
     </row>
     <row r="15">
@@ -19842,28 +19842,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>216.163860313794</v>
+        <v>240.3495711925328</v>
       </c>
       <c r="AB15" t="n">
-        <v>295.7649301576622</v>
+        <v>328.8568867801949</v>
       </c>
       <c r="AC15" t="n">
-        <v>267.5375403321887</v>
+        <v>297.4712470595304</v>
       </c>
       <c r="AD15" t="n">
-        <v>216163.860313794</v>
+        <v>240349.5711925328</v>
       </c>
       <c r="AE15" t="n">
-        <v>295764.9301576622</v>
+        <v>328856.8867801949</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.095801276822947e-06</v>
+        <v>7.630167126839923e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.739583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>267537.5403321887</v>
+        <v>297471.2470595303</v>
       </c>
     </row>
     <row r="16">
@@ -19948,28 +19948,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>212.6301456183853</v>
+        <v>236.8158564971241</v>
       </c>
       <c r="AB16" t="n">
-        <v>290.9299458149166</v>
+        <v>324.0219024374495</v>
       </c>
       <c r="AC16" t="n">
-        <v>263.1640001091702</v>
+        <v>293.0977068365117</v>
       </c>
       <c r="AD16" t="n">
-        <v>212630.1456183853</v>
+        <v>236815.8564971241</v>
       </c>
       <c r="AE16" t="n">
-        <v>290929.9458149166</v>
+        <v>324021.9024374494</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.11815297301643e-06</v>
+        <v>7.671806641552149e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.719791666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>263164.0001091702</v>
+        <v>293097.7068365117</v>
       </c>
     </row>
     <row r="17">
@@ -20054,28 +20054,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>210.6440850536503</v>
+        <v>234.8297959323891</v>
       </c>
       <c r="AB17" t="n">
-        <v>288.2125301314393</v>
+        <v>321.3044867539721</v>
       </c>
       <c r="AC17" t="n">
-        <v>260.7059307646061</v>
+        <v>290.6396374919478</v>
       </c>
       <c r="AD17" t="n">
-        <v>210644.0850536503</v>
+        <v>234829.7959323891</v>
       </c>
       <c r="AE17" t="n">
-        <v>288212.5301314393</v>
+        <v>321304.4867539721</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.125799605924727e-06</v>
+        <v>7.686051738690544e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.7125</v>
       </c>
       <c r="AH17" t="n">
-        <v>260705.9307646062</v>
+        <v>290639.6374919478</v>
       </c>
     </row>
     <row r="18">
@@ -20160,28 +20160,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>206.5967721883669</v>
+        <v>230.7824830671057</v>
       </c>
       <c r="AB18" t="n">
-        <v>282.6748181143195</v>
+        <v>315.7667747368523</v>
       </c>
       <c r="AC18" t="n">
-        <v>255.6967302101709</v>
+        <v>285.6304369375125</v>
       </c>
       <c r="AD18" t="n">
-        <v>206596.7721883669</v>
+        <v>230782.4830671057</v>
       </c>
       <c r="AE18" t="n">
-        <v>282674.8181143195</v>
+        <v>315766.7747368523</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.145798491992581e-06</v>
+        <v>7.723308146590959e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.694791666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>255696.7302101709</v>
+        <v>285630.4369375125</v>
       </c>
     </row>
     <row r="19">
@@ -20266,28 +20266,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>205.2742603957856</v>
+        <v>229.4599712745243</v>
       </c>
       <c r="AB19" t="n">
-        <v>280.8652991346081</v>
+        <v>313.9572557571408</v>
       </c>
       <c r="AC19" t="n">
-        <v>254.0599091822067</v>
+        <v>283.9936159095483</v>
       </c>
       <c r="AD19" t="n">
-        <v>205274.2603957856</v>
+        <v>229459.9712745243</v>
       </c>
       <c r="AE19" t="n">
-        <v>280865.2991346081</v>
+        <v>313957.2557571409</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.145651441359728e-06</v>
+        <v>7.72303420241522e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.694791666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>254059.9091822067</v>
+        <v>283993.6159095483</v>
       </c>
     </row>
     <row r="20">
@@ -20372,28 +20372,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>204.6552253673226</v>
+        <v>228.8409362460614</v>
       </c>
       <c r="AB20" t="n">
-        <v>280.0183080987675</v>
+        <v>313.1102647213003</v>
       </c>
       <c r="AC20" t="n">
-        <v>253.2937537820671</v>
+        <v>283.2274605094087</v>
       </c>
       <c r="AD20" t="n">
-        <v>204655.2253673226</v>
+        <v>228840.9362460614</v>
       </c>
       <c r="AE20" t="n">
-        <v>280018.3080987675</v>
+        <v>313110.2647213003</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.153151023635174e-06</v>
+        <v>7.737005355377875e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>253293.7537820671</v>
+        <v>283227.4605094087</v>
       </c>
     </row>
     <row r="21">
@@ -20478,28 +20478,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>204.8876716744817</v>
+        <v>229.0733825532205</v>
       </c>
       <c r="AB21" t="n">
-        <v>280.3363513910298</v>
+        <v>313.4283080135625</v>
       </c>
       <c r="AC21" t="n">
-        <v>253.5814434688925</v>
+        <v>283.5151501962341</v>
       </c>
       <c r="AD21" t="n">
-        <v>204887.6716744817</v>
+        <v>229073.3825532205</v>
       </c>
       <c r="AE21" t="n">
-        <v>280336.3513910298</v>
+        <v>313428.3080135625</v>
       </c>
       <c r="AF21" t="n">
-        <v>4.151239365408099e-06</v>
+        <v>7.733444081093276e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>3.689583333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>253581.4434688925</v>
+        <v>283515.1501962341</v>
       </c>
     </row>
     <row r="22">
@@ -20584,28 +20584,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>205.5408824850106</v>
+        <v>229.7265933637494</v>
       </c>
       <c r="AB22" t="n">
-        <v>281.2301032396221</v>
+        <v>314.3220598621549</v>
       </c>
       <c r="AC22" t="n">
-        <v>254.389896895444</v>
+        <v>284.3236036227856</v>
       </c>
       <c r="AD22" t="n">
-        <v>205540.8824850106</v>
+        <v>229726.5933637494</v>
       </c>
       <c r="AE22" t="n">
-        <v>281230.103239622</v>
+        <v>314322.0598621549</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.151533466673804e-06</v>
+        <v>7.733991969444752e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>3.689583333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>254389.896895444</v>
+        <v>284323.6036227857</v>
       </c>
     </row>
   </sheetData>
@@ -20881,28 +20881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.8103163062885</v>
+        <v>456.0865154275951</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.5077278449523</v>
+        <v>624.0376915250199</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.2957622401249</v>
+        <v>564.4804100882722</v>
       </c>
       <c r="AD2" t="n">
-        <v>422810.3163062885</v>
+        <v>456086.5154275951</v>
       </c>
       <c r="AE2" t="n">
-        <v>578507.7278449524</v>
+        <v>624037.6915250199</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.683308467557587e-06</v>
+        <v>5.378684725772653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.176041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>523295.7622401249</v>
+        <v>564480.4100882722</v>
       </c>
     </row>
     <row r="3">
@@ -20987,28 +20987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.920125486858</v>
+        <v>270.0758411190586</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.2152531549692</v>
+        <v>369.5296807242953</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.8410254855579</v>
+        <v>334.2622866341321</v>
       </c>
       <c r="AD3" t="n">
-        <v>247920.125486858</v>
+        <v>270075.8411190586</v>
       </c>
       <c r="AE3" t="n">
-        <v>339215.2531549691</v>
+        <v>369529.6807242953</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.687779307906114e-06</v>
+        <v>7.392143868390101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.493749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>306841.0254855579</v>
+        <v>334262.2866341321</v>
       </c>
     </row>
     <row r="4">
@@ -21093,28 +21093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.1156599332181</v>
+        <v>239.2713755654153</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.0672243873931</v>
+        <v>327.3816519565395</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.7155454284161</v>
+        <v>296.1368065769391</v>
       </c>
       <c r="AD4" t="n">
-        <v>217115.6599332181</v>
+        <v>239271.3755654153</v>
       </c>
       <c r="AE4" t="n">
-        <v>297067.2243873932</v>
+        <v>327381.6519565395</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.032837472732841e-06</v>
+        <v>8.083812047094132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>268715.5454284161</v>
+        <v>296136.8065769391</v>
       </c>
     </row>
     <row r="5">
@@ -21199,28 +21199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.4875286224923</v>
+        <v>213.7284956007101</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.0016844947184</v>
+        <v>292.432756716514</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.9966114482927</v>
+        <v>264.5233848475279</v>
       </c>
       <c r="AD5" t="n">
-        <v>191487.5286224923</v>
+        <v>213728.4956007101</v>
       </c>
       <c r="AE5" t="n">
-        <v>262001.6844947184</v>
+        <v>292432.756716514</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.209105082980888e-06</v>
+        <v>8.437140005602231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>236996.6114482927</v>
+        <v>264523.3848475279</v>
       </c>
     </row>
     <row r="6">
@@ -21305,28 +21305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.38477541312</v>
+        <v>204.6257423913378</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.5468959685323</v>
+        <v>279.9779681903279</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.7304904586363</v>
+        <v>253.2572638578716</v>
       </c>
       <c r="AD6" t="n">
-        <v>182384.77541312</v>
+        <v>204625.7423913378</v>
       </c>
       <c r="AE6" t="n">
-        <v>249546.8959685322</v>
+        <v>279977.9681903279</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.316329243005422e-06</v>
+        <v>8.652070550759685e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.839583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>225730.4904586363</v>
+        <v>253257.2638578716</v>
       </c>
     </row>
     <row r="7">
@@ -21411,28 +21411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.9396214675874</v>
+        <v>198.1805884458053</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.7283520001348</v>
+        <v>271.1594242219304</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.7535759496757</v>
+        <v>245.2803493489109</v>
       </c>
       <c r="AD7" t="n">
-        <v>175939.6214675875</v>
+        <v>198180.5884458053</v>
       </c>
       <c r="AE7" t="n">
-        <v>240728.3520001348</v>
+        <v>271159.4242219304</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.383781830320559e-06</v>
+        <v>8.787279083618378e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.780208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>217753.5759496757</v>
+        <v>245280.3493489109</v>
       </c>
     </row>
     <row r="8">
@@ -21517,28 +21517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>169.0896447294846</v>
+        <v>191.3306117077024</v>
       </c>
       <c r="AB8" t="n">
-        <v>231.3559116274216</v>
+        <v>261.7869838492172</v>
       </c>
       <c r="AC8" t="n">
-        <v>209.2756281318286</v>
+        <v>236.8024015310638</v>
       </c>
       <c r="AD8" t="n">
-        <v>169089.6447294846</v>
+        <v>191330.6117077024</v>
       </c>
       <c r="AE8" t="n">
-        <v>231355.9116274216</v>
+        <v>261786.9838492172</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.445825483747218e-06</v>
+        <v>8.911645422804443e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.727083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>209275.6281318286</v>
+        <v>236802.4015310638</v>
       </c>
     </row>
     <row r="9">
@@ -21623,28 +21623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.4923369498045</v>
+        <v>186.7333039280223</v>
       </c>
       <c r="AB9" t="n">
-        <v>225.0656723043615</v>
+        <v>255.4967445261571</v>
       </c>
       <c r="AC9" t="n">
-        <v>203.585720421353</v>
+        <v>231.1124938205882</v>
       </c>
       <c r="AD9" t="n">
-        <v>164492.3369498045</v>
+        <v>186733.3039280222</v>
       </c>
       <c r="AE9" t="n">
-        <v>225065.6723043615</v>
+        <v>255496.7445261571</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.480824467731488e-06</v>
+        <v>8.981800793627352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>203585.7204213529</v>
+        <v>231112.4938205882</v>
       </c>
     </row>
     <row r="10">
@@ -21729,28 +21729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>163.8427979392808</v>
+        <v>186.0837649174986</v>
       </c>
       <c r="AB10" t="n">
-        <v>224.1769443745248</v>
+        <v>254.6080165963203</v>
       </c>
       <c r="AC10" t="n">
-        <v>202.7818114378021</v>
+        <v>230.3085848370373</v>
       </c>
       <c r="AD10" t="n">
-        <v>163842.7979392808</v>
+        <v>186083.7649174986</v>
       </c>
       <c r="AE10" t="n">
-        <v>224176.9443745248</v>
+        <v>254608.0165963203</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487028833074153e-06</v>
+        <v>8.994237427545957e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH10" t="n">
-        <v>202781.8114378021</v>
+        <v>230308.5848370373</v>
       </c>
     </row>
     <row r="11">
@@ -21835,28 +21835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>164.6218528110251</v>
+        <v>186.8628197892429</v>
       </c>
       <c r="AB11" t="n">
-        <v>225.24288161952</v>
+        <v>255.6739538413156</v>
       </c>
       <c r="AC11" t="n">
-        <v>203.7460171281877</v>
+        <v>231.2727905274228</v>
       </c>
       <c r="AD11" t="n">
-        <v>164621.8528110251</v>
+        <v>186862.8197892429</v>
       </c>
       <c r="AE11" t="n">
-        <v>225242.88161952</v>
+        <v>255673.9538413156</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.486869746783315e-06</v>
+        <v>8.993918539496761e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH11" t="n">
-        <v>203746.0171281877</v>
+        <v>231272.7905274229</v>
       </c>
     </row>
   </sheetData>
@@ -22132,28 +22132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.0457951141762</v>
+        <v>328.8109499342002</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.4311616108116</v>
+        <v>449.8936478152945</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.6419419763929</v>
+        <v>406.9564294975025</v>
       </c>
       <c r="AD2" t="n">
-        <v>297045.7951141762</v>
+        <v>328810.9499342002</v>
       </c>
       <c r="AE2" t="n">
-        <v>406431.1616108115</v>
+        <v>449893.6478152945</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.210565896685351e-06</v>
+        <v>6.716704637969119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377083333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>367641.9419763929</v>
+        <v>406956.4294975025</v>
       </c>
     </row>
     <row r="3">
@@ -22238,28 +22238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.9012232542078</v>
+        <v>221.1064699219311</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.5136726758359</v>
+        <v>302.5276266760584</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.409911634585</v>
+        <v>273.6548145863756</v>
       </c>
       <c r="AD3" t="n">
-        <v>199901.2232542078</v>
+        <v>221106.4699219311</v>
       </c>
       <c r="AE3" t="n">
-        <v>273513.672675836</v>
+        <v>302527.6266760584</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087364913892029e-06</v>
+        <v>8.551023015149599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.222916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>247409.911634585</v>
+        <v>273654.8145863755</v>
       </c>
     </row>
     <row r="4">
@@ -22344,28 +22344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.8329411907472</v>
+        <v>189.1234392044911</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.6364344038749</v>
+        <v>258.7670330567465</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.7202554011951</v>
+        <v>234.0706706036979</v>
       </c>
       <c r="AD4" t="n">
-        <v>167832.9411907473</v>
+        <v>189123.4392044911</v>
       </c>
       <c r="AE4" t="n">
-        <v>229636.4344038749</v>
+        <v>258767.0330567465</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.387640819992672e-06</v>
+        <v>9.179218989341817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.934375000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>207720.2554011951</v>
+        <v>234070.6706036979</v>
       </c>
     </row>
     <row r="5">
@@ -22450,28 +22450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.6458392078462</v>
+        <v>177.93633722159</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.3297479307701</v>
+        <v>243.4603465836418</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.8744176020093</v>
+        <v>220.2248328045121</v>
       </c>
       <c r="AD5" t="n">
-        <v>156645.8392078462</v>
+        <v>177936.33722159</v>
       </c>
       <c r="AE5" t="n">
-        <v>214329.7479307701</v>
+        <v>243460.3465836417</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.534133039083714e-06</v>
+        <v>9.485689872998506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.807291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>193874.4176020093</v>
+        <v>220224.8328045121</v>
       </c>
     </row>
     <row r="6">
@@ -22556,28 +22556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>149.0865334784696</v>
+        <v>170.3770314922135</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.9867723388103</v>
+        <v>233.1173709916819</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.5185610840853</v>
+        <v>210.8689762865882</v>
       </c>
       <c r="AD6" t="n">
-        <v>149086.5334784696</v>
+        <v>170377.0314922135</v>
       </c>
       <c r="AE6" t="n">
-        <v>203986.7723388103</v>
+        <v>233117.3709916819</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.615002046907729e-06</v>
+        <v>9.654872894745639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.740625</v>
       </c>
       <c r="AH6" t="n">
-        <v>184518.5610840853</v>
+        <v>210868.9762865882</v>
       </c>
     </row>
     <row r="7">
@@ -22662,28 +22662,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>148.1505799256209</v>
+        <v>169.4410779393648</v>
       </c>
       <c r="AB7" t="n">
-        <v>202.7061593964468</v>
+        <v>231.8367580493185</v>
       </c>
       <c r="AC7" t="n">
-        <v>183.3601680435891</v>
+        <v>209.7105832460919</v>
       </c>
       <c r="AD7" t="n">
-        <v>148150.579925621</v>
+        <v>169441.0779393648</v>
       </c>
       <c r="AE7" t="n">
-        <v>202706.1593964468</v>
+        <v>231836.7580493185</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.631904995264387e-06</v>
+        <v>9.690234919782949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.727083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>183360.168043589</v>
+        <v>209710.5832460919</v>
       </c>
     </row>
   </sheetData>
@@ -42196,28 +42196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.4824030712724</v>
+        <v>251.1932178253824</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.6737508791013</v>
+        <v>343.6936424911788</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.8824314970576</v>
+        <v>310.89200362898</v>
       </c>
       <c r="AD2" t="n">
-        <v>220482.4030712724</v>
+        <v>251193.2178253824</v>
       </c>
       <c r="AE2" t="n">
-        <v>301673.7508791013</v>
+        <v>343693.6424911788</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.666603421516543e-06</v>
+        <v>7.970667003640508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>272882.4314970576</v>
+        <v>310892.00362898</v>
       </c>
     </row>
     <row r="3">
@@ -42302,28 +42302,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5558853075273</v>
+        <v>187.0014043672945</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.8891102047249</v>
+        <v>255.8635713749258</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.1396933712266</v>
+        <v>231.4443112297552</v>
       </c>
       <c r="AD3" t="n">
-        <v>166555.8853075273</v>
+        <v>187001.4043672945</v>
       </c>
       <c r="AE3" t="n">
-        <v>227889.1102047249</v>
+        <v>255863.5713749258</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.419329384576019e-06</v>
+        <v>9.606984681558384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.040624999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>206139.6933712266</v>
+        <v>231444.3112297552</v>
       </c>
     </row>
     <row r="4">
@@ -42408,28 +42408,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.1985940864169</v>
+        <v>159.7293644922046</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.4576574375118</v>
+        <v>218.5487632603619</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.2806459207304</v>
+        <v>197.6907760299713</v>
       </c>
       <c r="AD4" t="n">
-        <v>139198.5940864169</v>
+        <v>159729.3644922047</v>
       </c>
       <c r="AE4" t="n">
-        <v>190457.6574375118</v>
+        <v>218548.7632603619</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.682466335907447e-06</v>
+        <v>1.017900646147274e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.813541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>172280.6459207305</v>
+        <v>197690.7760299713</v>
       </c>
     </row>
     <row r="5">
@@ -42514,28 +42514,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.1810283693244</v>
+        <v>156.7117987751122</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.328890897784</v>
+        <v>214.4199967206341</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.5459230647928</v>
+        <v>193.9560531740336</v>
       </c>
       <c r="AD5" t="n">
-        <v>136181.0283693244</v>
+        <v>156711.7987751122</v>
       </c>
       <c r="AE5" t="n">
-        <v>186328.890897784</v>
+        <v>214419.9967206341</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.735093726173732e-06</v>
+        <v>1.029341081745561e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.770833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>168545.9230647928</v>
+        <v>193956.0531740336</v>
       </c>
     </row>
   </sheetData>
@@ -42811,28 +42811,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.931446919892</v>
+        <v>148.8709502559522</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.7779378466</v>
+        <v>203.6918018629016</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.811060971473</v>
+        <v>184.2517421764037</v>
       </c>
       <c r="AD2" t="n">
-        <v>129931.446919892</v>
+        <v>148870.9502559523</v>
       </c>
       <c r="AE2" t="n">
-        <v>177777.9378466</v>
+        <v>203691.8018629016</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622590443007339e-06</v>
+        <v>1.099495601001699e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>160811.0609714731</v>
+        <v>184251.7421764037</v>
       </c>
     </row>
     <row r="3">
@@ -42917,28 +42917,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.5384704571657</v>
+        <v>141.9049207711438</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.3483442432291</v>
+        <v>194.1605730022602</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.5221163014684</v>
+        <v>175.6301604210551</v>
       </c>
       <c r="AD3" t="n">
-        <v>113538.4704571657</v>
+        <v>141904.9207711438</v>
       </c>
       <c r="AE3" t="n">
-        <v>155348.3442432291</v>
+        <v>194160.5730022602</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.802349671745525e-06</v>
+        <v>1.142251818251288e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.990625</v>
       </c>
       <c r="AH3" t="n">
-        <v>140522.1163014684</v>
+        <v>175630.1604210551</v>
       </c>
     </row>
   </sheetData>
@@ -43214,28 +43214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.8896153375695</v>
+        <v>624.4594737495813</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.1129957980039</v>
+        <v>854.4130011918343</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.0832642692459</v>
+        <v>772.8690235342636</v>
       </c>
       <c r="AD2" t="n">
-        <v>589889.6153375695</v>
+        <v>624459.4737495814</v>
       </c>
       <c r="AE2" t="n">
-        <v>807112.9957980039</v>
+        <v>854413.0011918342</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.23880464250768e-06</v>
+        <v>4.344575472089136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.159375000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>730083.2642692459</v>
+        <v>772869.0235342636</v>
       </c>
     </row>
     <row r="3">
@@ -43320,28 +43320,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.1634434853718</v>
+        <v>332.6478715342609</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.9603774194476</v>
+        <v>455.143493221532</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.0252115745205</v>
+        <v>411.7052370263729</v>
       </c>
       <c r="AD3" t="n">
-        <v>298163.4434853718</v>
+        <v>332647.8715342609</v>
       </c>
       <c r="AE3" t="n">
-        <v>407960.3774194476</v>
+        <v>455143.493221532</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.349590258608225e-06</v>
+        <v>6.500141818000577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.785416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>369025.2115745206</v>
+        <v>411705.2370263729</v>
       </c>
     </row>
     <row r="4">
@@ -43426,28 +43426,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.7873246887279</v>
+        <v>276.7485859450176</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.2430139455241</v>
+        <v>378.6596245758979</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.1026280532978</v>
+        <v>342.5208814584943</v>
       </c>
       <c r="AD4" t="n">
-        <v>253787.3246887279</v>
+        <v>276748.5859450176</v>
       </c>
       <c r="AE4" t="n">
-        <v>347243.0139455241</v>
+        <v>378659.6245758979</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745497086455117e-06</v>
+        <v>7.268429975367267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.279166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>314102.6280532979</v>
+        <v>342520.8814584943</v>
       </c>
     </row>
     <row r="5">
@@ -43532,28 +43532,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.7773559856223</v>
+        <v>258.7386172419119</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.6009802222043</v>
+        <v>354.0175908525655</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.8123954432124</v>
+        <v>320.2306488484052</v>
       </c>
       <c r="AD5" t="n">
-        <v>235777.3559856223</v>
+        <v>258738.6172419119</v>
       </c>
       <c r="AE5" t="n">
-        <v>322600.9802222044</v>
+        <v>354017.5908525655</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.937064906381031e-06</v>
+        <v>7.640182309576955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.070833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>291812.3954432124</v>
+        <v>320230.6488484052</v>
       </c>
     </row>
     <row r="6">
@@ -43638,28 +43638,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.6420213189243</v>
+        <v>235.6885339212311</v>
       </c>
       <c r="AB6" t="n">
-        <v>290.946194672313</v>
+        <v>322.4794499551515</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.178698198422</v>
+        <v>291.7024638542782</v>
       </c>
       <c r="AD6" t="n">
-        <v>212642.0213189243</v>
+        <v>235688.5339212311</v>
       </c>
       <c r="AE6" t="n">
-        <v>290946.194672313</v>
+        <v>322479.4499551515</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.062314870573556e-06</v>
+        <v>7.883239659012046e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.945833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>263178.698198422</v>
+        <v>291702.4638542781</v>
       </c>
     </row>
     <row r="7">
@@ -43744,28 +43744,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>204.7767088044051</v>
+        <v>227.8232214067119</v>
       </c>
       <c r="AB7" t="n">
-        <v>280.1845270968547</v>
+        <v>311.7177823796931</v>
       </c>
       <c r="AC7" t="n">
-        <v>253.4441090722667</v>
+        <v>281.9678747281229</v>
       </c>
       <c r="AD7" t="n">
-        <v>204776.7088044051</v>
+        <v>227823.2214067119</v>
       </c>
       <c r="AE7" t="n">
-        <v>280184.5270968546</v>
+        <v>311717.7823796931</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.145712266878655e-06</v>
+        <v>8.04507882780052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>253444.1090722667</v>
+        <v>281967.8747281228</v>
       </c>
     </row>
     <row r="8">
@@ -43850,28 +43850,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>199.1082442003321</v>
+        <v>222.154756802639</v>
       </c>
       <c r="AB8" t="n">
-        <v>272.428683750557</v>
+        <v>303.9619390333954</v>
       </c>
       <c r="AC8" t="n">
-        <v>246.4284725295427</v>
+        <v>274.9522381853988</v>
       </c>
       <c r="AD8" t="n">
-        <v>199108.2442003321</v>
+        <v>222154.756802639</v>
       </c>
       <c r="AE8" t="n">
-        <v>272428.683750557</v>
+        <v>303961.9390333954</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.202490199049467e-06</v>
+        <v>8.155260844927728e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.813541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>246428.4725295427</v>
+        <v>274952.2381853988</v>
       </c>
     </row>
     <row r="9">
@@ -43956,28 +43956,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>193.5492430307271</v>
+        <v>216.5957556330339</v>
       </c>
       <c r="AB9" t="n">
-        <v>264.8226131044842</v>
+        <v>296.3558683873226</v>
       </c>
       <c r="AC9" t="n">
-        <v>239.5483145907415</v>
+        <v>268.0720802465976</v>
       </c>
       <c r="AD9" t="n">
-        <v>193549.2430307271</v>
+        <v>216595.7556330339</v>
       </c>
       <c r="AE9" t="n">
-        <v>264822.6131044842</v>
+        <v>296355.8683873226</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.248651119513543e-06</v>
+        <v>8.244839720640908e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.772916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>239548.3145907415</v>
+        <v>268072.0802465976</v>
       </c>
     </row>
     <row r="10">
@@ -44062,28 +44062,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.2449110519696</v>
+        <v>212.2914236542765</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.9332361974262</v>
+        <v>290.4664914802647</v>
       </c>
       <c r="AC10" t="n">
-        <v>234.2210115498989</v>
+        <v>262.744777205755</v>
       </c>
       <c r="AD10" t="n">
-        <v>189244.9110519696</v>
+        <v>212291.4236542765</v>
       </c>
       <c r="AE10" t="n">
-        <v>258933.2361974262</v>
+        <v>290466.4914802647</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.284195028270882e-06</v>
+        <v>8.313815454940055e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.741666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>234221.0115498989</v>
+        <v>262744.777205755</v>
       </c>
     </row>
     <row r="11">
@@ -44168,28 +44168,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>184.5098272205875</v>
+        <v>207.5563398228943</v>
       </c>
       <c r="AB11" t="n">
-        <v>252.4544856021771</v>
+        <v>283.9877408850155</v>
       </c>
       <c r="AC11" t="n">
-        <v>228.3605838184747</v>
+        <v>256.8843494743308</v>
       </c>
       <c r="AD11" t="n">
-        <v>184509.8272205875</v>
+        <v>207556.3398228943</v>
       </c>
       <c r="AE11" t="n">
-        <v>252454.4856021771</v>
+        <v>283987.7408850155</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.319123458088699e-06</v>
+        <v>8.381596804229693e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.711458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>228360.5838184746</v>
+        <v>256884.3494743308</v>
       </c>
     </row>
     <row r="12">
@@ -44274,28 +44274,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>181.1340893964156</v>
+        <v>204.1806019987224</v>
       </c>
       <c r="AB12" t="n">
-        <v>247.8356521841054</v>
+        <v>279.3689074669438</v>
       </c>
       <c r="AC12" t="n">
-        <v>224.1825653792488</v>
+        <v>252.706331035105</v>
       </c>
       <c r="AD12" t="n">
-        <v>181134.0893964156</v>
+        <v>204180.6019987224</v>
       </c>
       <c r="AE12" t="n">
-        <v>247835.6521841054</v>
+        <v>279368.9074669438</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.336356868395288e-06</v>
+        <v>8.415039584495946e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.695833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>224182.5653792488</v>
+        <v>252706.331035105</v>
       </c>
     </row>
     <row r="13">
@@ -44380,28 +44380,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>179.7740409486429</v>
+        <v>202.8205535509498</v>
       </c>
       <c r="AB13" t="n">
-        <v>245.9747738967609</v>
+        <v>277.5080291795993</v>
       </c>
       <c r="AC13" t="n">
-        <v>222.4992867038888</v>
+        <v>251.023052359745</v>
       </c>
       <c r="AD13" t="n">
-        <v>179774.0409486429</v>
+        <v>202820.5535509498</v>
       </c>
       <c r="AE13" t="n">
-        <v>245974.7738967609</v>
+        <v>277508.0291795993</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.34435809460906e-06</v>
+        <v>8.430566589619564e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.689583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>222499.2867038888</v>
+        <v>251023.052359745</v>
       </c>
     </row>
     <row r="14">
@@ -44486,28 +44486,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>179.1745368270725</v>
+        <v>202.2210494293794</v>
       </c>
       <c r="AB14" t="n">
-        <v>245.1545059093735</v>
+        <v>276.6877611922119</v>
       </c>
       <c r="AC14" t="n">
-        <v>221.757303941964</v>
+        <v>250.2810695978202</v>
       </c>
       <c r="AD14" t="n">
-        <v>179174.5368270725</v>
+        <v>202221.0494293794</v>
       </c>
       <c r="AE14" t="n">
-        <v>245154.5059093735</v>
+        <v>276687.7611922119</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.353436408966995e-06</v>
+        <v>8.448183768509822e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.68125</v>
       </c>
       <c r="AH14" t="n">
-        <v>221757.303941964</v>
+        <v>250281.0695978202</v>
       </c>
     </row>
   </sheetData>
@@ -44783,28 +44783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.9342503781902</v>
+        <v>978.783063044241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1257.326381885361</v>
+        <v>1339.21416771832</v>
       </c>
       <c r="AC2" t="n">
-        <v>1137.328916666881</v>
+        <v>1211.401447150173</v>
       </c>
       <c r="AD2" t="n">
-        <v>918934.2503781902</v>
+        <v>978783.0630442409</v>
       </c>
       <c r="AE2" t="n">
-        <v>1257326.381885361</v>
+        <v>1339214.16771832</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.738361713762983e-06</v>
+        <v>3.261848411320645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.885416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1137328.916666881</v>
+        <v>1211401.447150172</v>
       </c>
     </row>
     <row r="3">
@@ -44889,28 +44889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.7969400830282</v>
+        <v>407.7706909998281</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.1279053476012</v>
+        <v>557.9298489992123</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.0104350828695</v>
+        <v>504.681807270188</v>
       </c>
       <c r="AD3" t="n">
-        <v>383796.9400830282</v>
+        <v>407770.6909998281</v>
       </c>
       <c r="AE3" t="n">
-        <v>525127.9053476012</v>
+        <v>557929.8489992123</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>5.570237721174568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>475010.4350828695</v>
+        <v>504681.807270188</v>
       </c>
     </row>
     <row r="4">
@@ -44995,28 +44995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.6411097142777</v>
+        <v>329.7001119770983</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.1916502451882</v>
+        <v>451.1102385494486</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.280026081454</v>
+        <v>408.0569105194849</v>
       </c>
       <c r="AD4" t="n">
-        <v>305641.1097142777</v>
+        <v>329700.1119770983</v>
       </c>
       <c r="AE4" t="n">
-        <v>418191.6502451882</v>
+        <v>451110.2385494487</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.404810647657744e-06</v>
+        <v>6.388760241313201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.536458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>378280.026081454</v>
+        <v>408056.9105194848</v>
       </c>
     </row>
     <row r="5">
@@ -45101,28 +45101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.5812467920177</v>
+        <v>302.469656854246</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.1671519980537</v>
+        <v>413.8523285274671</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.7890939828164</v>
+        <v>374.354843138196</v>
       </c>
       <c r="AD5" t="n">
-        <v>278581.2467920177</v>
+        <v>302469.656854246</v>
       </c>
       <c r="AE5" t="n">
-        <v>381167.1519980537</v>
+        <v>413852.3285274672</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.63433844814436e-06</v>
+        <v>6.819444422541822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>344789.0939828164</v>
+        <v>374354.843138196</v>
       </c>
     </row>
     <row r="6">
@@ -45207,28 +45207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.3271893891344</v>
+        <v>288.2155994513628</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.664121814798</v>
+        <v>394.3492983442115</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.1474056275759</v>
+        <v>356.7131547829555</v>
       </c>
       <c r="AD6" t="n">
-        <v>264327.1893891345</v>
+        <v>288215.5994513629</v>
       </c>
       <c r="AE6" t="n">
-        <v>361664.121814798</v>
+        <v>394349.2983442115</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.76867448641366e-06</v>
+        <v>7.071511520857799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.097916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>327147.4056275759</v>
+        <v>356713.1547829555</v>
       </c>
     </row>
     <row r="7">
@@ -45313,28 +45313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>241.9488189685385</v>
+        <v>277.7386293717717</v>
       </c>
       <c r="AB7" t="n">
-        <v>331.0450481411573</v>
+        <v>380.0142456700162</v>
       </c>
       <c r="AC7" t="n">
-        <v>299.4505733713069</v>
+        <v>343.7462194166126</v>
       </c>
       <c r="AD7" t="n">
-        <v>241948.8189685385</v>
+        <v>277738.6293717717</v>
       </c>
       <c r="AE7" t="n">
-        <v>331045.0481411573</v>
+        <v>380014.2456700162</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.868166188045779e-06</v>
+        <v>7.258196976674598e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.992708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>299450.5733713069</v>
+        <v>343746.2194166126</v>
       </c>
     </row>
     <row r="8">
@@ -45419,28 +45419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.3677860682096</v>
+        <v>259.3414474764614</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.040588592251</v>
+        <v>354.8424097744692</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.3054868039069</v>
+        <v>320.9767482100431</v>
       </c>
       <c r="AD8" t="n">
-        <v>235367.7860682096</v>
+        <v>259341.4474764614</v>
       </c>
       <c r="AE8" t="n">
-        <v>322040.588592251</v>
+        <v>354842.4097744692</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.931923910403173e-06</v>
+        <v>7.377831471460327e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.928125</v>
       </c>
       <c r="AH8" t="n">
-        <v>291305.486803907</v>
+        <v>320976.7482100431</v>
       </c>
     </row>
     <row r="9">
@@ -45525,28 +45525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>229.2642322709487</v>
+        <v>253.2378936791973</v>
       </c>
       <c r="AB9" t="n">
-        <v>313.6894370170534</v>
+        <v>346.4912581990993</v>
       </c>
       <c r="AC9" t="n">
-        <v>283.7513574141287</v>
+        <v>313.4226188202158</v>
       </c>
       <c r="AD9" t="n">
-        <v>229264.2322709487</v>
+        <v>253237.8936791973</v>
       </c>
       <c r="AE9" t="n">
-        <v>313689.4370170534</v>
+        <v>346491.2581990993</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.989009312978978e-06</v>
+        <v>7.484946077256851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.871875000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>283751.3574141287</v>
+        <v>313422.6188202158</v>
       </c>
     </row>
     <row r="10">
@@ -45631,28 +45631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>224.7459385831941</v>
+        <v>248.7195999914427</v>
       </c>
       <c r="AB10" t="n">
-        <v>307.5073082604214</v>
+        <v>340.3091294424673</v>
       </c>
       <c r="AC10" t="n">
-        <v>278.1592423493556</v>
+        <v>307.8305037554426</v>
       </c>
       <c r="AD10" t="n">
-        <v>224745.9385831941</v>
+        <v>248719.5999914427</v>
       </c>
       <c r="AE10" t="n">
-        <v>307507.3082604214</v>
+        <v>340309.1294424674</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.028598410349732e-06</v>
+        <v>7.559230751926129e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>278159.2423493555</v>
+        <v>307830.5037554426</v>
       </c>
     </row>
     <row r="11">
@@ -45737,28 +45737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>220.1239008489945</v>
+        <v>244.0975622572431</v>
       </c>
       <c r="AB11" t="n">
-        <v>301.1832323225792</v>
+        <v>333.9850535046251</v>
       </c>
       <c r="AC11" t="n">
-        <v>272.4387273431227</v>
+        <v>302.1099887492097</v>
       </c>
       <c r="AD11" t="n">
-        <v>220123.9008489945</v>
+        <v>244097.5622572431</v>
       </c>
       <c r="AE11" t="n">
-        <v>301183.2323225791</v>
+        <v>333985.0535046251</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.067149591310016e-06</v>
+        <v>7.631567888308197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.797916666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>272438.7273431226</v>
+        <v>302109.9887492097</v>
       </c>
     </row>
     <row r="12">
@@ -45843,28 +45843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.1853409988317</v>
+        <v>240.1590024070803</v>
       </c>
       <c r="AB12" t="n">
-        <v>295.7943209785915</v>
+        <v>328.5961421606376</v>
       </c>
       <c r="AC12" t="n">
-        <v>267.5641261344189</v>
+        <v>297.235387540506</v>
       </c>
       <c r="AD12" t="n">
-        <v>216185.3409988317</v>
+        <v>240159.0024070803</v>
       </c>
       <c r="AE12" t="n">
-        <v>295794.3209785916</v>
+        <v>328596.1421606375</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.094580239300988e-06</v>
+        <v>7.683038543041591e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.771875</v>
       </c>
       <c r="AH12" t="n">
-        <v>267564.1261344189</v>
+        <v>297235.387540506</v>
       </c>
     </row>
     <row r="13">
@@ -45949,28 +45949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>213.6794657262988</v>
+        <v>237.6531271345474</v>
       </c>
       <c r="AB13" t="n">
-        <v>292.3656718792991</v>
+        <v>325.1674930613451</v>
       </c>
       <c r="AC13" t="n">
-        <v>264.4627024930227</v>
+        <v>294.1339638991097</v>
       </c>
       <c r="AD13" t="n">
-        <v>213679.4657262988</v>
+        <v>237653.1271345474</v>
       </c>
       <c r="AE13" t="n">
-        <v>292365.6718792991</v>
+        <v>325167.4930613451</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.112521365824813e-06</v>
+        <v>7.716703133434784e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.755208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>264462.7024930227</v>
+        <v>294133.9638991097</v>
       </c>
     </row>
     <row r="14">
@@ -46055,28 +46055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>210.149889700186</v>
+        <v>234.1235511084346</v>
       </c>
       <c r="AB14" t="n">
-        <v>287.5363502464695</v>
+        <v>320.3381714285154</v>
       </c>
       <c r="AC14" t="n">
-        <v>260.0942845388332</v>
+        <v>289.7655459449203</v>
       </c>
       <c r="AD14" t="n">
-        <v>210149.889700186</v>
+        <v>234123.5511084346</v>
       </c>
       <c r="AE14" t="n">
-        <v>287536.3502464695</v>
+        <v>320338.1714285154</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.128979754619396e-06</v>
+        <v>7.74758552627482e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.740625</v>
       </c>
       <c r="AH14" t="n">
-        <v>260094.2845388332</v>
+        <v>289765.5459449203</v>
       </c>
     </row>
     <row r="15">
@@ -46161,28 +46161,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>207.4588171918151</v>
+        <v>231.4324786000637</v>
       </c>
       <c r="AB15" t="n">
-        <v>283.8543061187782</v>
+        <v>316.656127300824</v>
       </c>
       <c r="AC15" t="n">
-        <v>256.7636495349062</v>
+        <v>286.4349109409933</v>
       </c>
       <c r="AD15" t="n">
-        <v>207458.8171918151</v>
+        <v>231432.4786000637</v>
       </c>
       <c r="AE15" t="n">
-        <v>283854.3061187782</v>
+        <v>316656.127300824</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.150924273012173e-06</v>
+        <v>7.788762050061538e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>4</v>
+        <v>3.720833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>256763.6495349062</v>
+        <v>286434.9109409933</v>
       </c>
     </row>
     <row r="16">
@@ -46267,28 +46267,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>204.2017056812365</v>
+        <v>228.1753670894851</v>
       </c>
       <c r="AB16" t="n">
-        <v>279.3977824563883</v>
+        <v>312.1996036384342</v>
       </c>
       <c r="AC16" t="n">
-        <v>252.7324502360831</v>
+        <v>282.4037116421702</v>
       </c>
       <c r="AD16" t="n">
-        <v>204201.7056812365</v>
+        <v>228175.3670894851</v>
       </c>
       <c r="AE16" t="n">
-        <v>279397.7824563882</v>
+        <v>312199.6036384342</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.169755042173542e-06</v>
+        <v>7.824095958986623e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>3.704166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>252732.4502360831</v>
+        <v>282403.7116421702</v>
       </c>
     </row>
     <row r="17">
@@ -46373,28 +46373,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>200.6805547508718</v>
+        <v>224.6542161591204</v>
       </c>
       <c r="AB17" t="n">
-        <v>274.5799884112501</v>
+        <v>307.3818095932961</v>
       </c>
       <c r="AC17" t="n">
-        <v>248.3744596927951</v>
+        <v>278.0457210988822</v>
       </c>
       <c r="AD17" t="n">
-        <v>200680.5547508718</v>
+        <v>224654.2161591204</v>
       </c>
       <c r="AE17" t="n">
-        <v>274579.9884112501</v>
+        <v>307381.809593296</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.181765217780401e-06</v>
+        <v>7.846631759167191e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>3.69375</v>
       </c>
       <c r="AH17" t="n">
-        <v>248374.4596927951</v>
+        <v>278045.7210988821</v>
       </c>
     </row>
     <row r="18">
@@ -46479,28 +46479,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>200.188463812397</v>
+        <v>224.1621252206456</v>
       </c>
       <c r="AB18" t="n">
-        <v>273.9066878797092</v>
+        <v>306.7085090617551</v>
       </c>
       <c r="AC18" t="n">
-        <v>247.7654180190009</v>
+        <v>277.4366794250881</v>
       </c>
       <c r="AD18" t="n">
-        <v>200188.463812397</v>
+        <v>224162.1252206456</v>
       </c>
       <c r="AE18" t="n">
-        <v>273906.6878797092</v>
+        <v>306708.5090617551</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.188140990016141e-06</v>
+        <v>7.858595208645764e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>4</v>
+        <v>3.6875</v>
       </c>
       <c r="AH18" t="n">
-        <v>247765.4180190009</v>
+        <v>277436.679425088</v>
       </c>
     </row>
     <row r="19">
@@ -46585,28 +46585,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>199.7318805389697</v>
+        <v>223.7055419472184</v>
       </c>
       <c r="AB19" t="n">
-        <v>273.281970501974</v>
+        <v>306.08379168402</v>
       </c>
       <c r="AC19" t="n">
-        <v>247.2003227910002</v>
+        <v>276.8715841970873</v>
       </c>
       <c r="AD19" t="n">
-        <v>199731.8805389697</v>
+        <v>223705.5419472184</v>
       </c>
       <c r="AE19" t="n">
-        <v>273281.970501974</v>
+        <v>306083.79168402</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.187251347378595e-06</v>
+        <v>7.856925890113871e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>4</v>
+        <v>3.688541666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>247200.3227910002</v>
+        <v>276871.5841970873</v>
       </c>
     </row>
     <row r="20">
@@ -46691,28 +46691,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>199.1241174653215</v>
+        <v>223.0977788735701</v>
       </c>
       <c r="AB20" t="n">
-        <v>272.4504022519945</v>
+        <v>305.2522234340404</v>
       </c>
       <c r="AC20" t="n">
-        <v>246.4481182476851</v>
+        <v>276.1193796537722</v>
       </c>
       <c r="AD20" t="n">
-        <v>199124.1174653215</v>
+        <v>223097.7788735701</v>
       </c>
       <c r="AE20" t="n">
-        <v>272450.4022519945</v>
+        <v>305252.2234340404</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.197482237710363e-06</v>
+        <v>7.876123053230651e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3.679166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>246448.1182476851</v>
+        <v>276119.3796537722</v>
       </c>
     </row>
   </sheetData>
@@ -46988,28 +46988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.9730209361899</v>
+        <v>129.2081555166359</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.8381830289866</v>
+        <v>176.7882986393008</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.34695994697</v>
+        <v>159.9158715411509</v>
       </c>
       <c r="AD2" t="n">
-        <v>110973.0209361899</v>
+        <v>129208.1555166359</v>
       </c>
       <c r="AE2" t="n">
-        <v>151838.1830289866</v>
+        <v>176788.2986393009</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.687059080189476e-06</v>
+        <v>1.17219790608354e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>137346.95994697</v>
+        <v>159915.8715411509</v>
       </c>
     </row>
   </sheetData>
@@ -47285,28 +47285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.4524297560009</v>
+        <v>363.8942706790295</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.5078370413473</v>
+        <v>497.8961950252454</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.2256855763674</v>
+        <v>450.3776809737339</v>
       </c>
       <c r="AD2" t="n">
-        <v>331452.4297560009</v>
+        <v>363894.2706790295</v>
       </c>
       <c r="AE2" t="n">
-        <v>453507.8370413473</v>
+        <v>497896.1950252454</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.025944268563763e-06</v>
+        <v>6.231276977443857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.621875</v>
       </c>
       <c r="AH2" t="n">
-        <v>410225.6855763674</v>
+        <v>450377.6809737339</v>
       </c>
     </row>
     <row r="3">
@@ -47391,28 +47391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.7371314557336</v>
+        <v>237.2797740583986</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.1810609081156</v>
+        <v>324.6566549113832</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.0093947443531</v>
+        <v>293.6718794252142</v>
       </c>
       <c r="AD3" t="n">
-        <v>215737.1314557336</v>
+        <v>237279.7740583986</v>
       </c>
       <c r="AE3" t="n">
-        <v>295181.0609081156</v>
+        <v>324656.6549113832</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.945158531259145e-06</v>
+        <v>8.124199703079662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.311458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>267009.3947443531</v>
+        <v>293671.8794252143</v>
       </c>
     </row>
     <row r="4">
@@ -47497,28 +47497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.8808753780808</v>
+        <v>213.1520345919658</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.4891935932057</v>
+        <v>291.6440173326857</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.8691723100068</v>
+        <v>263.8099216434892</v>
       </c>
       <c r="AD4" t="n">
-        <v>180880.8753780808</v>
+        <v>213152.0345919658</v>
       </c>
       <c r="AE4" t="n">
-        <v>247489.1935932057</v>
+        <v>291644.0173326857</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.26049033819906e-06</v>
+        <v>8.773557276929856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.992708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>223869.1723100068</v>
+        <v>263809.9216434892</v>
       </c>
     </row>
     <row r="5">
@@ -47603,28 +47603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.2196719743084</v>
+        <v>189.8475659229939</v>
       </c>
       <c r="AB5" t="n">
-        <v>230.165576523301</v>
+        <v>259.7578151792177</v>
       </c>
       <c r="AC5" t="n">
-        <v>208.198896939399</v>
+        <v>234.9668938709724</v>
       </c>
       <c r="AD5" t="n">
-        <v>168219.6719743084</v>
+        <v>189847.5659229939</v>
       </c>
       <c r="AE5" t="n">
-        <v>230165.576523301</v>
+        <v>259757.8151792178</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.422483684902527e-06</v>
+        <v>9.107147496121669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.846875</v>
       </c>
       <c r="AH5" t="n">
-        <v>208198.896939399</v>
+        <v>234966.8938709724</v>
       </c>
     </row>
     <row r="6">
@@ -47709,28 +47709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.7303319715824</v>
+        <v>181.358225920268</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.5500870083287</v>
+        <v>248.1423256642456</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.6919734412901</v>
+        <v>224.4599703728635</v>
       </c>
       <c r="AD6" t="n">
-        <v>159730.3319715824</v>
+        <v>181358.225920268</v>
       </c>
       <c r="AE6" t="n">
-        <v>218550.0870083287</v>
+        <v>248142.3256642456</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.519483733231015e-06</v>
+        <v>9.306898091081282e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.763541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>197691.9734412901</v>
+        <v>224459.9703728635</v>
       </c>
     </row>
     <row r="7">
@@ -47815,28 +47815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.254922708136</v>
+        <v>175.8828166568215</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.0583904960766</v>
+        <v>240.6506291519934</v>
       </c>
       <c r="AC7" t="n">
-        <v>190.9152739295028</v>
+        <v>217.6832708610762</v>
       </c>
       <c r="AD7" t="n">
-        <v>154254.9227081359</v>
+        <v>175882.8166568215</v>
       </c>
       <c r="AE7" t="n">
-        <v>211058.3904960766</v>
+        <v>240650.6291519934</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.569943354331188e-06</v>
+        <v>9.41080875411583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.721874999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>190915.2739295028</v>
+        <v>217683.2708610762</v>
       </c>
     </row>
     <row r="8">
@@ -47921,28 +47921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>153.6043029928302</v>
+        <v>175.2321969415157</v>
       </c>
       <c r="AB8" t="n">
-        <v>210.1681838982796</v>
+        <v>239.7604225541964</v>
       </c>
       <c r="AC8" t="n">
-        <v>190.1100273999864</v>
+        <v>216.8780243315598</v>
       </c>
       <c r="AD8" t="n">
-        <v>153604.3029928302</v>
+        <v>175232.1969415157</v>
       </c>
       <c r="AE8" t="n">
-        <v>210168.1838982796</v>
+        <v>239760.4225541964</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.586599928286584e-06</v>
+        <v>9.445109361331116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.708333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>190110.0273999865</v>
+        <v>216878.0243315598</v>
       </c>
     </row>
   </sheetData>
@@ -48218,28 +48218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.9331358386474</v>
+        <v>502.6318064789475</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.6150043243149</v>
+        <v>687.7230121747975</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.3801688239159</v>
+        <v>622.0876931181439</v>
       </c>
       <c r="AD2" t="n">
-        <v>468933.1358386474</v>
+        <v>502631.8064789475</v>
       </c>
       <c r="AE2" t="n">
-        <v>641615.0043243149</v>
+        <v>687723.0121747975</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.527668571812534e-06</v>
+        <v>5.007776814327782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>580380.1688239159</v>
+        <v>622087.6931181438</v>
       </c>
     </row>
     <row r="3">
@@ -48324,28 +48324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.4251334066337</v>
+        <v>287.0330889187525</v>
       </c>
       <c r="AB3" t="n">
-        <v>361.7981331405255</v>
+        <v>392.7313352648111</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.268627100462</v>
+        <v>355.2496078290277</v>
       </c>
       <c r="AD3" t="n">
-        <v>264425.1334066337</v>
+        <v>287033.0889187524</v>
       </c>
       <c r="AE3" t="n">
-        <v>361798.1331405255</v>
+        <v>392731.3352648111</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.567381967682179e-06</v>
+        <v>7.067640475032493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.590625</v>
       </c>
       <c r="AH3" t="n">
-        <v>327268.627100462</v>
+        <v>355249.6078290277</v>
       </c>
     </row>
     <row r="4">
@@ -48430,28 +48430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.6450364904456</v>
+        <v>252.0823998019718</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.2104701500653</v>
+        <v>344.9102604994881</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.2226638762008</v>
+        <v>311.9925093221108</v>
       </c>
       <c r="AD4" t="n">
-        <v>229645.0364904456</v>
+        <v>252082.3998019718</v>
       </c>
       <c r="AE4" t="n">
-        <v>314210.4701500653</v>
+        <v>344910.2604994881</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.930251847867744e-06</v>
+        <v>7.786552516300672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>284222.6638762008</v>
+        <v>311992.5093221108</v>
       </c>
     </row>
     <row r="5">
@@ -48536,28 +48536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.101314798925</v>
+        <v>235.714555076102</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.5239349885053</v>
+        <v>322.515053247218</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.1328787370637</v>
+        <v>291.7346692181195</v>
       </c>
       <c r="AD5" t="n">
-        <v>202101.314798925</v>
+        <v>235714.555076102</v>
       </c>
       <c r="AE5" t="n">
-        <v>276523.9349885053</v>
+        <v>322515.053247218</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.117661248726147e-06</v>
+        <v>8.157845043680079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.977083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>250132.8787370637</v>
+        <v>291734.6692181195</v>
       </c>
     </row>
     <row r="6">
@@ -48642,28 +48642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.3984535790503</v>
+        <v>214.9210682365971</v>
       </c>
       <c r="AB6" t="n">
-        <v>263.2480522074532</v>
+        <v>294.0644872095252</v>
       </c>
       <c r="AC6" t="n">
-        <v>238.1240275758125</v>
+        <v>265.9993852724348</v>
       </c>
       <c r="AD6" t="n">
-        <v>192398.4535790503</v>
+        <v>214921.0682365971</v>
       </c>
       <c r="AE6" t="n">
-        <v>263248.0522074532</v>
+        <v>294064.4872095252</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.230861557969477e-06</v>
+        <v>8.382115697801868e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.870833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>238124.0275758125</v>
+        <v>265999.3852724348</v>
       </c>
     </row>
     <row r="7">
@@ -48748,28 +48748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.300355613804</v>
+        <v>207.8229702713508</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.5361214254267</v>
+        <v>284.3525564274988</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.3389898368391</v>
+        <v>257.2143475334614</v>
       </c>
       <c r="AD7" t="n">
-        <v>185300.355613804</v>
+        <v>207822.9702713508</v>
       </c>
       <c r="AE7" t="n">
-        <v>253536.1214254267</v>
+        <v>284352.5564274988</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.304756204281096e-06</v>
+        <v>8.528514597020258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.804166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>229338.9898368391</v>
+        <v>257214.3475334614</v>
       </c>
     </row>
     <row r="8">
@@ -48854,28 +48854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>179.8920786248417</v>
+        <v>202.4146932823885</v>
       </c>
       <c r="AB8" t="n">
-        <v>246.1362782527906</v>
+        <v>276.9527132548627</v>
       </c>
       <c r="AC8" t="n">
-        <v>222.6453773108519</v>
+        <v>250.5207350074742</v>
       </c>
       <c r="AD8" t="n">
-        <v>179892.0786248417</v>
+        <v>202414.6932823885</v>
       </c>
       <c r="AE8" t="n">
-        <v>246136.2782527907</v>
+        <v>276952.7132548626</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.353023558361238e-06</v>
+        <v>8.624141112041632e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.7625</v>
       </c>
       <c r="AH8" t="n">
-        <v>222645.3773108519</v>
+        <v>250520.7350074742</v>
       </c>
     </row>
     <row r="9">
@@ -48960,28 +48960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.337355975167</v>
+        <v>196.8599706327138</v>
       </c>
       <c r="AB9" t="n">
-        <v>238.5360616664416</v>
+        <v>269.3524966685136</v>
       </c>
       <c r="AC9" t="n">
-        <v>215.7705147285306</v>
+        <v>243.6458724251529</v>
       </c>
       <c r="AD9" t="n">
-        <v>174337.355975167</v>
+        <v>196859.9706327138</v>
       </c>
       <c r="AE9" t="n">
-        <v>238536.0616664416</v>
+        <v>269352.4966685136</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.399718685924112e-06</v>
+        <v>8.716652756866871e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.722916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>215770.5147285306</v>
+        <v>243645.8724251529</v>
       </c>
     </row>
     <row r="10">
@@ -49066,28 +49066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>170.4685104084398</v>
+        <v>192.9911250659866</v>
       </c>
       <c r="AB10" t="n">
-        <v>233.2425364806277</v>
+        <v>264.0589714826998</v>
       </c>
       <c r="AC10" t="n">
-        <v>210.9821961569399</v>
+        <v>238.8575538535622</v>
       </c>
       <c r="AD10" t="n">
-        <v>170468.5104084398</v>
+        <v>192991.1250659866</v>
       </c>
       <c r="AE10" t="n">
-        <v>233242.5364806277</v>
+        <v>264058.9714826998</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.424088196941773e-06</v>
+        <v>8.764933244906976e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.702083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>210982.1961569399</v>
+        <v>238857.5538535622</v>
       </c>
     </row>
     <row r="11">
@@ -49172,28 +49172,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>168.8630404139246</v>
+        <v>191.3856550714714</v>
       </c>
       <c r="AB11" t="n">
-        <v>231.0458616057958</v>
+        <v>261.8622966078678</v>
       </c>
       <c r="AC11" t="n">
-        <v>208.9951688491087</v>
+        <v>236.8705265457309</v>
       </c>
       <c r="AD11" t="n">
-        <v>168863.0404139246</v>
+        <v>191385.6550714714</v>
       </c>
       <c r="AE11" t="n">
-        <v>231045.8616057958</v>
+        <v>261862.2966078678</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.440911020676546e-06</v>
+        <v>8.798262356005633e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.6875</v>
       </c>
       <c r="AH11" t="n">
-        <v>208995.1688491087</v>
+        <v>236870.5265457309</v>
       </c>
     </row>
   </sheetData>
